--- a/experiment_result.xlsx
+++ b/experiment_result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="141" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="141" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Task C" sheetId="1" state="visible" r:id="rId2"/>
@@ -230,8 +230,8 @@
   </sheetPr>
   <dimension ref="A1:AF106"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA1" activeCellId="1" sqref="AH30:AN35 AA1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG62" activeCellId="0" sqref="AG62:AN78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -255,7 +255,9 @@
     <col collapsed="false" hidden="false" max="28" min="27" style="0" width="4.53571428571429"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.55612244897959"/>
     <col collapsed="false" hidden="false" max="32" min="30" style="0" width="7.07142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="39" min="34" style="0" width="2.56632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -362,7 +364,7 @@
         <v>0</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V2" s="0" t="n">
         <v>21</v>
@@ -374,14 +376,14 @@
         <v>0.954545454545455</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.954545454545455</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.954545454545455</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="AA2" s="0" t="n">
         <f aca="false">C2+I2+O2+U2</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB2" s="0" t="n">
         <f aca="false">D2+J2+P2+V2</f>
@@ -397,11 +399,11 @@
       </c>
       <c r="AE2" s="4" t="n">
         <f aca="false">AB2/AA2</f>
-        <v>0.84375</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="AF2" s="4" t="n">
         <f aca="false">(2*AD2*AE2)/(AD2+AE2)</f>
-        <v>0.885245901639344</v>
+        <v>0.870967741935484</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -647,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>0</v>
@@ -684,7 +686,7 @@
       </c>
       <c r="AA5" s="0" t="n">
         <f aca="false">C5+I5+O5+U5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="0" t="n">
         <f aca="false">D5+J5+P5+V5</f>
@@ -698,9 +700,9 @@
         <f aca="false">AB5/(AB5+AC5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE5" s="4" t="e">
+      <c r="AE5" s="4" t="n">
         <f aca="false">AB5/AA5</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="e">
         <f aca="false">(2*AD5*AE5)/(AD5+AE5)</f>
@@ -867,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V7" s="0" t="n">
         <v>0</v>
@@ -886,7 +888,7 @@
       </c>
       <c r="AA7" s="0" t="n">
         <f aca="false">C7+I7+O7+U7</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB7" s="0" t="n">
         <f aca="false">D7+J7+P7+V7</f>
@@ -902,11 +904,11 @@
       </c>
       <c r="AE7" s="4" t="n">
         <f aca="false">AB7/AA7</f>
-        <v>0.571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="AF7" s="4" t="n">
         <f aca="false">(2*AD7*AE7)/(AD7+AE7)</f>
-        <v>0.727272727272727</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -974,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="4" t="n">
         <v>0</v>
@@ -995,11 +997,11 @@
       </c>
       <c r="AC8" s="0" t="n">
         <f aca="false">E8+K8+Q8+W8</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD8" s="4" t="n">
         <f aca="false">AB8/(AB8+AC8)</f>
-        <v>0.928571428571429</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="AE8" s="4" t="n">
         <f aca="false">AB8/AA8</f>
@@ -1007,7 +1009,7 @@
       </c>
       <c r="AF8" s="4" t="n">
         <f aca="false">(2*AD8*AE8)/(AD8+AE8)</f>
-        <v>0.962962962962963</v>
+        <v>0.928571428571429</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1051,22 +1053,22 @@
         <v>0</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="0" t="n">
         <v>5</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.925373134328358</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="S9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>0.961240310077519</v>
+        <v>0.962962962962963</v>
       </c>
       <c r="U9" s="0" t="n">
         <v>2</v>
@@ -1075,32 +1077,32 @@
         <v>2</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA9" s="0" t="n">
         <f aca="false">C9+I9+O9+U9</f>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AB9" s="0" t="n">
         <f aca="false">D9+J9+P9+V9</f>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AC9" s="0" t="n">
         <f aca="false">E9+K9+Q9+W9</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD9" s="4" t="n">
         <f aca="false">AB9/(AB9+AC9)</f>
-        <v>0.915492957746479</v>
+        <v>0.906666666666667</v>
       </c>
       <c r="AE9" s="4" t="n">
         <f aca="false">AB9/AA9</f>
@@ -1108,7 +1110,7 @@
       </c>
       <c r="AF9" s="4" t="n">
         <f aca="false">(2*AD9*AE9)/(AD9+AE9)</f>
-        <v>0.955882352941176</v>
+        <v>0.951048951048951</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1556,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="0" t="n">
         <v>0</v>
@@ -1593,7 +1595,7 @@
       </c>
       <c r="AA14" s="0" t="n">
         <f aca="false">C14+I14+O14+U14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="0" t="n">
         <f aca="false">D14+J14+P14+V14</f>
@@ -1607,9 +1609,9 @@
         <f aca="false">AB14/(AB14+AC14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE14" s="4" t="n">
+      <c r="AE14" s="4" t="e">
         <f aca="false">AB14/AA14</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AF14" s="4" t="e">
         <f aca="false">(2*AD14*AE14)/(AD14+AE14)</f>
@@ -1770,7 +1772,7 @@
       </c>
       <c r="P16" s="7" t="n">
         <f aca="false">SUM(P2:P15)</f>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="7" t="n">
         <f aca="false">SUM(Q2:Q15)</f>
@@ -1778,15 +1780,15 @@
       </c>
       <c r="R16" s="6" t="n">
         <f aca="false">P16/(P16+Q16)</f>
-        <v>0.898550724637681</v>
+        <v>0.902777777777778</v>
       </c>
       <c r="S16" s="6" t="n">
         <f aca="false">P16/O16</f>
-        <v>0.413333333333333</v>
+        <v>0.433333333333333</v>
       </c>
       <c r="T16" s="6" t="n">
         <f aca="false">(2*R16*S16)/(R16+S16)</f>
-        <v>0.5662100456621</v>
+        <v>0.585585585585586</v>
       </c>
       <c r="U16" s="7" t="n">
         <v>582</v>
@@ -1797,11 +1799,11 @@
       </c>
       <c r="W16" s="7" t="n">
         <f aca="false">SUM(W2:W15)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X16" s="6" t="n">
         <f aca="false">V16/(V16+W16)</f>
-        <v>0.952380952380952</v>
+        <v>0.909090909090909</v>
       </c>
       <c r="Y16" s="6" t="n">
         <f aca="false">V16/U16</f>
@@ -1809,7 +1811,7 @@
       </c>
       <c r="Z16" s="6" t="n">
         <f aca="false">(2*X16*Y16)/(X16+Y16)</f>
-        <v>0.128205128205128</v>
+        <v>0.12779552715655</v>
       </c>
       <c r="AA16" s="5" t="n">
         <f aca="false">C16+I16+O16+U16</f>
@@ -1817,23 +1819,23 @@
       </c>
       <c r="AB16" s="5" t="n">
         <f aca="false">D16+J16+P16+V16</f>
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AC16" s="5" t="n">
         <f aca="false">E16+K16+Q16+W16</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD16" s="6" t="n">
         <f aca="false">AB16/(AB16+AC16)</f>
-        <v>0.917241379310345</v>
+        <v>0.906666666666667</v>
       </c>
       <c r="AE16" s="6" t="n">
         <f aca="false">AB16/AA16</f>
-        <v>0.144880174291939</v>
+        <v>0.148148148148148</v>
       </c>
       <c r="AF16" s="6" t="n">
         <f aca="false">(2*AD16*AE16)/(AD16+AE16)</f>
-        <v>0.250235183443086</v>
+        <v>0.254681647940075</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1850,16 +1852,16 @@
         <v>48</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>0.786885245901639</v>
+        <v>0.774193548387097</v>
       </c>
       <c r="M17" s="4" t="n">
         <v>0.979591836734694</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>0.872727272727273</v>
+        <v>0.864864864864865</v>
       </c>
       <c r="O17" s="0" t="n">
         <v>5</v>
@@ -1868,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17" s="4" t="n">
         <v>0</v>
@@ -1883,19 +1885,19 @@
         <v>179</v>
       </c>
       <c r="V17" s="0" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="W17" s="0" t="n">
         <v>110</v>
       </c>
       <c r="X17" s="4" t="n">
-        <v>0.549180327868853</v>
+        <v>0.552845528455285</v>
       </c>
       <c r="Y17" s="4" t="n">
-        <v>0.748603351955307</v>
+        <v>0.759776536312849</v>
       </c>
       <c r="Z17" s="4" t="n">
-        <v>0.633569739952719</v>
+        <v>0.64</v>
       </c>
       <c r="AA17" s="0" t="n">
         <f aca="false">C17+I17+O17+U17</f>
@@ -1903,23 +1905,23 @@
       </c>
       <c r="AB17" s="0" t="n">
         <f aca="false">D17+J17+P17+V17</f>
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AC17" s="0" t="n">
         <f aca="false">E17+K17+Q17+W17</f>
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AD17" s="4" t="n">
         <f aca="false">AB17/(AB17+AC17)</f>
-        <v>0.594771241830065</v>
+        <v>0.593548387096774</v>
       </c>
       <c r="AE17" s="4" t="n">
         <f aca="false">AB17/AA17</f>
-        <v>0.781115879828326</v>
+        <v>0.789699570815451</v>
       </c>
       <c r="AF17" s="4" t="n">
         <f aca="false">(2*AD17*AE17)/(AD17+AE17)</f>
-        <v>0.675324675324675</v>
+        <v>0.677716390423573</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1951,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R18" s="4" t="n">
         <v>0</v>
@@ -1969,16 +1971,16 @@
         <v>96</v>
       </c>
       <c r="W18" s="0" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="X18" s="4" t="n">
-        <v>0.545454545454545</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="Y18" s="4" t="n">
         <v>0.60377358490566</v>
       </c>
       <c r="Z18" s="4" t="n">
-        <v>0.573134328358209</v>
+        <v>0.576576576576576</v>
       </c>
       <c r="AA18" s="0" t="n">
         <f aca="false">C18+I18+O18+U18</f>
@@ -2283,16 +2285,16 @@
         <v>1</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="S22" s="4" t="n">
         <v>0.166666666666667</v>
       </c>
       <c r="T22" s="4" t="n">
-        <v>0.222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="U22" s="0" t="n">
         <v>61</v>
@@ -2301,16 +2303,16 @@
         <v>17</v>
       </c>
       <c r="W22" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X22" s="4" t="n">
-        <v>0.472222222222222</v>
+        <v>0.485714285714286</v>
       </c>
       <c r="Y22" s="4" t="n">
         <v>0.278688524590164</v>
       </c>
       <c r="Z22" s="4" t="n">
-        <v>0.350515463917526</v>
+        <v>0.354166666666667</v>
       </c>
       <c r="AA22" s="0" t="n">
         <f aca="false">C22+I22+O22+U22</f>
@@ -2342,22 +2344,22 @@
         <v>12</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>0.888888888888889</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="M23" s="4" t="n">
-        <v>0.8</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="N23" s="4" t="n">
-        <v>0.842105263157895</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="O23" s="0" t="n">
         <v>3</v>
@@ -2397,11 +2399,11 @@
       </c>
       <c r="AA23" s="0" t="n">
         <f aca="false">C23+I23+O23+U23</f>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB23" s="0" t="n">
         <f aca="false">D23+J23+P23+V23</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC23" s="0" t="n">
         <f aca="false">E23+K23+Q23+W23</f>
@@ -2409,15 +2411,15 @@
       </c>
       <c r="AD23" s="4" t="n">
         <f aca="false">AB23/(AB23+AC23)</f>
-        <v>0.818181818181818</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="AE23" s="4" t="n">
         <f aca="false">AB23/AA23</f>
-        <v>0.333333333333333</v>
+        <v>0.320754716981132</v>
       </c>
       <c r="AF23" s="4" t="n">
         <f aca="false">(2*AD23*AE23)/(AD23+AE23)</f>
-        <v>0.473684210526316</v>
+        <v>0.459459459459459</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2425,7 +2427,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>1</v>
@@ -2437,28 +2439,28 @@
         <v>0.5</v>
       </c>
       <c r="M24" s="4" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="N24" s="4" t="n">
-        <v>0.153846153846154</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="O24" s="0" t="n">
         <v>107</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>0.764705882352941</v>
+        <v>0.770992366412214</v>
       </c>
       <c r="S24" s="4" t="n">
-        <v>0.97196261682243</v>
+        <v>0.94392523364486</v>
       </c>
       <c r="T24" s="4" t="n">
-        <v>0.8559670781893</v>
+        <v>0.848739495798319</v>
       </c>
       <c r="U24" s="0" t="n">
         <v>33</v>
@@ -2467,40 +2469,40 @@
         <v>3</v>
       </c>
       <c r="W24" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X24" s="4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Y24" s="4" t="n">
         <v>0.0909090909090909</v>
       </c>
       <c r="Z24" s="4" t="n">
-        <v>0.157894736842105</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="AA24" s="0" t="n">
         <f aca="false">C24+I24+O24+U24</f>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AB24" s="0" t="n">
         <f aca="false">D24+J24+P24+V24</f>
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AC24" s="0" t="n">
         <f aca="false">E24+K24+Q24+W24</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD24" s="4" t="n">
         <f aca="false">AB24/(AB24+AC24)</f>
-        <v>0.755244755244755</v>
+        <v>0.755395683453237</v>
       </c>
       <c r="AE24" s="4" t="n">
         <f aca="false">AB24/AA24</f>
-        <v>0.71523178807947</v>
+        <v>0.69078947368421</v>
       </c>
       <c r="AF24" s="4" t="n">
         <f aca="false">(2*AD24*AE24)/(AD24+AE24)</f>
-        <v>0.734693877551021</v>
+        <v>0.721649484536083</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2781,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R28" s="4" t="n">
         <v>0</v>
@@ -2820,7 +2822,7 @@
       </c>
       <c r="AC28" s="0" t="n">
         <f aca="false">E28+K28+Q28+W28</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD28" s="4" t="n">
         <f aca="false">AB28/(AB28+AC28)</f>
@@ -3010,69 +3012,69 @@
       </c>
       <c r="J31" s="5" t="n">
         <f aca="false">SUM(J17:J30)</f>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K31" s="5" t="n">
         <f aca="false">SUM(K17:K30)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L31" s="6" t="n">
         <f aca="false">J31/(J31+K31)</f>
-        <v>0.813186813186813</v>
+        <v>0.802197802197802</v>
       </c>
       <c r="M31" s="6" t="n">
         <f aca="false">J31/I31</f>
-        <v>0.44578313253012</v>
+        <v>0.439759036144578</v>
       </c>
       <c r="N31" s="6" t="n">
         <f aca="false">(2*L31*M31)/(L31+M31)</f>
-        <v>0.575875486381323</v>
+        <v>0.568093385214008</v>
       </c>
       <c r="O31" s="7" t="n">
         <v>150</v>
       </c>
       <c r="P31" s="7" t="n">
         <f aca="false">SUM(P17:P30)</f>
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q31" s="7" t="n">
         <f aca="false">SUM(Q17:Q30)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R31" s="6" t="n">
         <f aca="false">P31/(P31+Q31)</f>
-        <v>0.73943661971831</v>
+        <v>0.71830985915493</v>
       </c>
       <c r="S31" s="6" t="n">
         <f aca="false">P31/O31</f>
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="T31" s="6" t="n">
         <f aca="false">(2*R31*S31)/(R31+S31)</f>
-        <v>0.719178082191781</v>
+        <v>0.698630136986301</v>
       </c>
       <c r="U31" s="7" t="n">
         <v>582</v>
       </c>
       <c r="V31" s="7" t="n">
         <f aca="false">SUM(V17:V30)</f>
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="W31" s="7" t="n">
         <f aca="false">SUM(W17:W30)</f>
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="X31" s="6" t="n">
         <f aca="false">V31/(V31+W31)</f>
-        <v>0.538461538461538</v>
+        <v>0.542735042735043</v>
       </c>
       <c r="Y31" s="6" t="n">
         <f aca="false">V31/U31</f>
-        <v>0.432989690721649</v>
+        <v>0.436426116838488</v>
       </c>
       <c r="Z31" s="6" t="n">
         <f aca="false">(2*X31*Y31)/(X31+Y31)</f>
-        <v>0.48</v>
+        <v>0.483809523809524</v>
       </c>
       <c r="AA31" s="5" t="n">
         <f aca="false">C31+I31+O31+U31</f>
@@ -3080,23 +3082,23 @@
       </c>
       <c r="AB31" s="5" t="n">
         <f aca="false">D31+J31+P31+V31</f>
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AC31" s="5" t="n">
         <f aca="false">E31+K31+Q31+W31</f>
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AD31" s="6" t="n">
         <f aca="false">AB31/(AB31+AC31)</f>
-        <v>0.614835948644793</v>
+        <v>0.611982881597718</v>
       </c>
       <c r="AE31" s="6" t="n">
         <f aca="false">AB31/AA31</f>
-        <v>0.479955456570156</v>
+        <v>0.477728285077951</v>
       </c>
       <c r="AF31" s="6" t="n">
         <f aca="false">(2*AD31*AE31)/(AD31+AE31)</f>
-        <v>0.539086929330832</v>
+        <v>0.536585365853659</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3161,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V32" s="0" t="n">
         <v>21</v>
@@ -3173,14 +3175,14 @@
         <v>0.954545454545455</v>
       </c>
       <c r="Y32" s="4" t="n">
-        <v>0.954545454545455</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="Z32" s="4" t="n">
-        <v>0.954545454545455</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="AA32" s="0" t="n">
         <f aca="false">C32+I32+O32+U32</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB32" s="0" t="n">
         <f aca="false">D32+J32+P32+V32</f>
@@ -3196,11 +3198,11 @@
       </c>
       <c r="AE32" s="4" t="n">
         <f aca="false">AB32/AA32</f>
-        <v>0.857142857142857</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="AF32" s="4" t="n">
         <f aca="false">(2*AD32*AE32)/(AD32+AE32)</f>
-        <v>0.90566037735849</v>
+        <v>0.888888888888889</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="0" t="n">
         <v>0</v>
@@ -3483,7 +3485,7 @@
       </c>
       <c r="AA35" s="0" t="n">
         <f aca="false">C35+I35+O35+U35</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB35" s="0" t="n">
         <f aca="false">D35+J35+P35+V35</f>
@@ -3666,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V37" s="0" t="n">
         <v>0</v>
@@ -3685,7 +3687,7 @@
       </c>
       <c r="AA37" s="0" t="n">
         <f aca="false">C37+I37+O37+U37</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB37" s="0" t="n">
         <f aca="false">D37+J37+P37+V37</f>
@@ -3701,11 +3703,11 @@
       </c>
       <c r="AE37" s="4" t="n">
         <f aca="false">AB37/AA37</f>
-        <v>0.571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="AF37" s="4" t="n">
         <f aca="false">(2*AD37*AE37)/(AD37+AE37)</f>
-        <v>0.727272727272727</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3773,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" s="4" t="n">
         <v>0</v>
@@ -3794,11 +3796,11 @@
       </c>
       <c r="AC38" s="0" t="n">
         <f aca="false">E38+K38+Q38+W38</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" s="4" t="n">
         <f aca="false">AB38/(AB38+AC38)</f>
-        <v>1</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="AE38" s="4" t="n">
         <f aca="false">AB38/AA38</f>
@@ -3806,7 +3808,7 @@
       </c>
       <c r="AF38" s="4" t="n">
         <f aca="false">(2*AD38*AE38)/(AD38+AE38)</f>
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3850,22 +3852,22 @@
         <v>1</v>
       </c>
       <c r="O39" s="0" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q39" s="0" t="n">
         <v>5</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>0.925373134328358</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="S39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v>0.961240310077519</v>
+        <v>0.962962962962963</v>
       </c>
       <c r="U39" s="0" t="n">
         <v>2</v>
@@ -3874,32 +3876,32 @@
         <v>2</v>
       </c>
       <c r="W39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" s="4" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="Z39" s="4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA39" s="0" t="n">
         <f aca="false">C39+I39+O39+U39</f>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB39" s="0" t="n">
         <f aca="false">D39+J39+P39+V39</f>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC39" s="0" t="n">
         <f aca="false">E39+K39+Q39+W39</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD39" s="4" t="n">
         <f aca="false">AB39/(AB39+AC39)</f>
-        <v>0.911392405063291</v>
+        <v>0.903614457831325</v>
       </c>
       <c r="AE39" s="4" t="n">
         <f aca="false">AB39/AA39</f>
@@ -3907,7 +3909,7 @@
       </c>
       <c r="AF39" s="4" t="n">
         <f aca="false">(2*AD39*AE39)/(AD39+AE39)</f>
-        <v>0.95364238410596</v>
+        <v>0.949367088607595</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4355,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" s="0" t="n">
         <v>0</v>
@@ -4392,7 +4394,7 @@
       </c>
       <c r="AA44" s="0" t="n">
         <f aca="false">C44+I44+O44+U44</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="0" t="n">
         <f aca="false">D44+J44+P44+V44</f>
@@ -4406,9 +4408,9 @@
         <f aca="false">AB44/(AB44+AC44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE44" s="4" t="n">
+      <c r="AE44" s="4" t="e">
         <f aca="false">AB44/AA44</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AF44" s="4" t="e">
         <f aca="false">(2*AD44*AE44)/(AD44+AE44)</f>
@@ -4569,7 +4571,7 @@
       </c>
       <c r="P46" s="7" t="n">
         <f aca="false">SUM(P32:P45)</f>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q46" s="7" t="n">
         <f aca="false">SUM(Q32:Q45)</f>
@@ -4577,15 +4579,15 @@
       </c>
       <c r="R46" s="6" t="n">
         <f aca="false">P46/(P46+Q46)</f>
-        <v>0.898550724637681</v>
+        <v>0.902777777777778</v>
       </c>
       <c r="S46" s="6" t="n">
         <f aca="false">P46/O46</f>
-        <v>0.413333333333333</v>
+        <v>0.433333333333333</v>
       </c>
       <c r="T46" s="6" t="n">
         <f aca="false">(2*R46*S46)/(R46+S46)</f>
-        <v>0.5662100456621</v>
+        <v>0.585585585585586</v>
       </c>
       <c r="U46" s="7" t="n">
         <v>582</v>
@@ -4596,11 +4598,11 @@
       </c>
       <c r="W46" s="7" t="n">
         <f aca="false">SUM(W32:W45)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X46" s="6" t="n">
         <f aca="false">V46/(V46+W46)</f>
-        <v>0.952380952380952</v>
+        <v>0.909090909090909</v>
       </c>
       <c r="Y46" s="6" t="n">
         <f aca="false">V46/U46</f>
@@ -4608,7 +4610,7 @@
       </c>
       <c r="Z46" s="6" t="n">
         <f aca="false">(2*X46*Y46)/(X46+Y46)</f>
-        <v>0.128205128205128</v>
+        <v>0.12779552715655</v>
       </c>
       <c r="AA46" s="5" t="n">
         <f aca="false">C46+I46+O46+U46</f>
@@ -4616,23 +4618,23 @@
       </c>
       <c r="AB46" s="5" t="n">
         <f aca="false">D46+J46+P46+V46</f>
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AC46" s="5" t="n">
         <f aca="false">E46+K46+Q46+W46</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD46" s="6" t="n">
         <f aca="false">AB46/(AB46+AC46)</f>
-        <v>0.918918918918919</v>
+        <v>0.908496732026144</v>
       </c>
       <c r="AE46" s="6" t="n">
         <f aca="false">AB46/AA46</f>
-        <v>0.148148148148148</v>
+        <v>0.151416122004357</v>
       </c>
       <c r="AF46" s="6" t="n">
         <f aca="false">(2*AD46*AE46)/(AD46+AE46)</f>
-        <v>0.25515947467167</v>
+        <v>0.259570494864613</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4667,16 +4669,16 @@
         <v>48</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>0.786885245901639</v>
+        <v>0.774193548387097</v>
       </c>
       <c r="M47" s="4" t="n">
         <v>0.979591836734694</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>0.872727272727273</v>
+        <v>0.864864864864865</v>
       </c>
       <c r="O47" s="0" t="n">
         <v>5</v>
@@ -4700,19 +4702,19 @@
         <v>179</v>
       </c>
       <c r="V47" s="0" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="W47" s="0" t="n">
         <v>110</v>
       </c>
       <c r="X47" s="4" t="n">
-        <v>0.549180327868853</v>
+        <v>0.552845528455285</v>
       </c>
       <c r="Y47" s="4" t="n">
-        <v>0.748603351955307</v>
+        <v>0.759776536312849</v>
       </c>
       <c r="Z47" s="4" t="n">
-        <v>0.633569739952719</v>
+        <v>0.64</v>
       </c>
       <c r="AA47" s="0" t="n">
         <f aca="false">C47+I47+O47+U47</f>
@@ -4720,23 +4722,23 @@
       </c>
       <c r="AB47" s="0" t="n">
         <f aca="false">D47+J47+P47+V47</f>
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AC47" s="0" t="n">
         <f aca="false">E47+K47+Q47+W47</f>
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD47" s="4" t="n">
         <f aca="false">AB47/(AB47+AC47)</f>
-        <v>0.598070739549839</v>
+        <v>0.598726114649682</v>
       </c>
       <c r="AE47" s="4" t="n">
         <f aca="false">AB47/AA47</f>
-        <v>0.778242677824268</v>
+        <v>0.786610878661088</v>
       </c>
       <c r="AF47" s="4" t="n">
         <f aca="false">(2*AD47*AE47)/(AD47+AE47)</f>
-        <v>0.676363636363636</v>
+        <v>0.67992766726944</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4786,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R48" s="4" t="n">
         <v>0</v>
@@ -4804,16 +4806,16 @@
         <v>96</v>
       </c>
       <c r="W48" s="0" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="X48" s="4" t="n">
-        <v>0.548571428571429</v>
+        <v>0.554913294797688</v>
       </c>
       <c r="Y48" s="4" t="n">
         <v>0.60377358490566</v>
       </c>
       <c r="Z48" s="4" t="n">
-        <v>0.574850299401198</v>
+        <v>0.578313253012048</v>
       </c>
       <c r="AA48" s="0" t="n">
         <f aca="false">C48+I48+O48+U48</f>
@@ -5190,16 +5192,16 @@
         <v>1</v>
       </c>
       <c r="Q52" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="S52" s="4" t="n">
         <v>0.166666666666667</v>
       </c>
       <c r="T52" s="4" t="n">
-        <v>0.222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="U52" s="0" t="n">
         <v>61</v>
@@ -5208,16 +5210,16 @@
         <v>17</v>
       </c>
       <c r="W52" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X52" s="4" t="n">
-        <v>0.472222222222222</v>
+        <v>0.485714285714286</v>
       </c>
       <c r="Y52" s="4" t="n">
         <v>0.278688524590164</v>
       </c>
       <c r="Z52" s="4" t="n">
-        <v>0.350515463917526</v>
+        <v>0.354166666666667</v>
       </c>
       <c r="AA52" s="0" t="n">
         <f aca="false">C52+I52+O52+U52</f>
@@ -5267,22 +5269,22 @@
         <v>0.909090909090909</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L53" s="4" t="n">
-        <v>0.888888888888889</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="M53" s="4" t="n">
-        <v>0.8</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="N53" s="4" t="n">
-        <v>0.842105263157895</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="O53" s="0" t="n">
         <v>3</v>
@@ -5322,11 +5324,11 @@
       </c>
       <c r="AA53" s="0" t="n">
         <f aca="false">C53+I53+O53+U53</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB53" s="0" t="n">
         <f aca="false">D53+J53+P53+V53</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC53" s="0" t="n">
         <f aca="false">E53+K53+Q53+W53</f>
@@ -5334,15 +5336,15 @@
       </c>
       <c r="AD53" s="4" t="n">
         <f aca="false">AB53/(AB53+AC53)</f>
-        <v>0.821428571428571</v>
+        <v>0.814814814814815</v>
       </c>
       <c r="AE53" s="4" t="n">
         <f aca="false">AB53/AA53</f>
-        <v>0.389830508474576</v>
+        <v>0.379310344827586</v>
       </c>
       <c r="AF53" s="4" t="n">
         <f aca="false">(2*AD53*AE53)/(AD53+AE53)</f>
-        <v>0.528735632183908</v>
+        <v>0.517647058823529</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5368,7 +5370,7 @@
         <v>0.8</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>1</v>
@@ -5380,28 +5382,28 @@
         <v>0.5</v>
       </c>
       <c r="M54" s="4" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="N54" s="4" t="n">
-        <v>0.153846153846154</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="O54" s="0" t="n">
         <v>107</v>
       </c>
       <c r="P54" s="0" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q54" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>0.777777777777778</v>
+        <v>0.78030303030303</v>
       </c>
       <c r="S54" s="4" t="n">
-        <v>0.981308411214953</v>
+        <v>0.962616822429906</v>
       </c>
       <c r="T54" s="4" t="n">
-        <v>0.867768595041322</v>
+        <v>0.861924686192469</v>
       </c>
       <c r="U54" s="0" t="n">
         <v>33</v>
@@ -5410,24 +5412,24 @@
         <v>3</v>
       </c>
       <c r="W54" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X54" s="4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Y54" s="4" t="n">
         <v>0.0909090909090909</v>
       </c>
       <c r="Z54" s="4" t="n">
-        <v>0.157894736842105</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="AA54" s="0" t="n">
         <f aca="false">C54+I54+O54+U54</f>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AB54" s="0" t="n">
         <f aca="false">D54+J54+P54+V54</f>
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AC54" s="0" t="n">
         <f aca="false">E54+K54+Q54+W54</f>
@@ -5435,15 +5437,15 @@
       </c>
       <c r="AD54" s="4" t="n">
         <f aca="false">AB54/(AB54+AC54)</f>
-        <v>0.76551724137931</v>
+        <v>0.762237762237762</v>
       </c>
       <c r="AE54" s="4" t="n">
         <f aca="false">AB54/AA54</f>
-        <v>0.725490196078431</v>
+        <v>0.707792207792208</v>
       </c>
       <c r="AF54" s="4" t="n">
         <f aca="false">(2*AD54*AE54)/(AD54+AE54)</f>
-        <v>0.74496644295302</v>
+        <v>0.734006734006734</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6082,69 +6084,69 @@
       </c>
       <c r="J61" s="5" t="n">
         <f aca="false">SUM(J47:J60)</f>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K61" s="5" t="n">
         <f aca="false">SUM(K47:K60)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L61" s="6" t="n">
         <f aca="false">J61/(J61+K61)</f>
-        <v>0.813186813186813</v>
+        <v>0.802197802197802</v>
       </c>
       <c r="M61" s="6" t="n">
         <f aca="false">J61/I61</f>
-        <v>0.44578313253012</v>
+        <v>0.439759036144578</v>
       </c>
       <c r="N61" s="6" t="n">
         <f aca="false">(2*L61*M61)/(L61+M61)</f>
-        <v>0.575875486381323</v>
+        <v>0.568093385214008</v>
       </c>
       <c r="O61" s="7" t="n">
         <v>150</v>
       </c>
       <c r="P61" s="7" t="n">
         <f aca="false">SUM(P47:P60)</f>
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q61" s="7" t="n">
         <f aca="false">SUM(Q47:Q60)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R61" s="6" t="n">
         <f aca="false">P61/(P61+Q61)</f>
-        <v>0.746478873239437</v>
+        <v>0.732394366197183</v>
       </c>
       <c r="S61" s="6" t="n">
         <f aca="false">P61/O61</f>
-        <v>0.706666666666667</v>
+        <v>0.693333333333333</v>
       </c>
       <c r="T61" s="6" t="n">
         <f aca="false">(2*R61*S61)/(R61+S61)</f>
-        <v>0.726027397260274</v>
+        <v>0.712328767123288</v>
       </c>
       <c r="U61" s="7" t="n">
         <v>582</v>
       </c>
       <c r="V61" s="7" t="n">
         <f aca="false">SUM(V47:V60)</f>
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="W61" s="7" t="n">
         <f aca="false">SUM(W47:W60)</f>
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="X61" s="6" t="n">
         <f aca="false">V61/(V61+W61)</f>
-        <v>0.538461538461538</v>
+        <v>0.542735042735043</v>
       </c>
       <c r="Y61" s="6" t="n">
         <f aca="false">V61/U61</f>
-        <v>0.432989690721649</v>
+        <v>0.436426116838488</v>
       </c>
       <c r="Z61" s="6" t="n">
         <f aca="false">(2*X61*Y61)/(X61+Y61)</f>
-        <v>0.48</v>
+        <v>0.483809523809524</v>
       </c>
       <c r="AA61" s="5" t="n">
         <f aca="false">C61+I61+O61+U61</f>
@@ -6152,23 +6154,23 @@
       </c>
       <c r="AB61" s="5" t="n">
         <f aca="false">D61+J61+P61+V61</f>
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AC61" s="5" t="n">
         <f aca="false">E61+K61+Q61+W61</f>
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AD61" s="6" t="n">
         <f aca="false">AB61/(AB61+AC61)</f>
-        <v>0.622746185852982</v>
+        <v>0.621359223300971</v>
       </c>
       <c r="AE61" s="6" t="n">
         <f aca="false">AB61/AA61</f>
-        <v>0.489106753812636</v>
+        <v>0.4880174291939</v>
       </c>
       <c r="AF61" s="6" t="n">
         <f aca="false">(2*AD61*AE61)/(AD61+AE61)</f>
-        <v>0.547895057962172</v>
+        <v>0.546674801708359</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6203,16 +6205,16 @@
         <v>48</v>
       </c>
       <c r="K62" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L62" s="4" t="n">
-        <v>0.786885245901639</v>
+        <v>0.774193548387097</v>
       </c>
       <c r="M62" s="4" t="n">
         <v>0.979591836734694</v>
       </c>
       <c r="N62" s="4" t="n">
-        <v>0.872727272727273</v>
+        <v>0.864864864864865</v>
       </c>
       <c r="O62" s="0" t="n">
         <v>5</v>
@@ -6236,19 +6238,19 @@
         <v>179</v>
       </c>
       <c r="V62" s="0" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="W62" s="0" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="X62" s="4" t="n">
-        <v>0.558823529411765</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="Y62" s="4" t="n">
-        <v>0.743016759776536</v>
+        <v>0.726256983240223</v>
       </c>
       <c r="Z62" s="4" t="n">
-        <v>0.6378896882494</v>
+        <v>0.620525059665871</v>
       </c>
       <c r="AA62" s="0" t="n">
         <f aca="false">C62+I62+O62+U62</f>
@@ -6256,23 +6258,23 @@
       </c>
       <c r="AB62" s="0" t="n">
         <f aca="false">D62+J62+P62+V62</f>
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AC62" s="0" t="n">
         <f aca="false">E62+K62+Q62+W62</f>
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AD62" s="4" t="n">
         <f aca="false">AB62/(AB62+AC62)</f>
-        <v>0.60655737704918</v>
+        <v>0.590909090909091</v>
       </c>
       <c r="AE62" s="4" t="n">
         <f aca="false">AB62/AA62</f>
-        <v>0.774058577405858</v>
+        <v>0.761506276150628</v>
       </c>
       <c r="AF62" s="4" t="n">
         <f aca="false">(2*AD62*AE62)/(AD62+AE62)</f>
-        <v>0.680147058823529</v>
+        <v>0.6654478976234</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6340,19 +6342,19 @@
         <v>159</v>
       </c>
       <c r="V63" s="0" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="W63" s="0" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="X63" s="4" t="n">
-        <v>0.549132947976879</v>
+        <v>0.549382716049383</v>
       </c>
       <c r="Y63" s="4" t="n">
-        <v>0.59748427672956</v>
+        <v>0.559748427672956</v>
       </c>
       <c r="Z63" s="4" t="n">
-        <v>0.572289156626506</v>
+        <v>0.554517133956386</v>
       </c>
       <c r="AA63" s="0" t="n">
         <f aca="false">C63+I63+O63+U63</f>
@@ -6360,23 +6362,23 @@
       </c>
       <c r="AB63" s="0" t="n">
         <f aca="false">D63+J63+P63+V63</f>
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AC63" s="0" t="n">
         <f aca="false">E63+K63+Q63+W63</f>
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AD63" s="4" t="n">
         <f aca="false">AB63/(AB63+AC63)</f>
-        <v>0.566844919786096</v>
+        <v>0.568181818181818</v>
       </c>
       <c r="AE63" s="4" t="n">
         <f aca="false">AB63/AA63</f>
-        <v>0.602272727272727</v>
+        <v>0.568181818181818</v>
       </c>
       <c r="AF63" s="4" t="n">
         <f aca="false">(2*AD63*AE63)/(AD63+AE63)</f>
-        <v>0.584022038567493</v>
+        <v>0.568181818181818</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6744,19 +6746,19 @@
         <v>61</v>
       </c>
       <c r="V67" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="W67" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X67" s="4" t="n">
-        <v>0.51219512195122</v>
+        <v>0.473684210526316</v>
       </c>
       <c r="Y67" s="4" t="n">
-        <v>0.344262295081967</v>
+        <v>0.295081967213115</v>
       </c>
       <c r="Z67" s="4" t="n">
-        <v>0.411764705882353</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="AA67" s="0" t="n">
         <f aca="false">C67+I67+O67+U67</f>
@@ -6764,7 +6766,7 @@
       </c>
       <c r="AB67" s="0" t="n">
         <f aca="false">D67+J67+P67+V67</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC67" s="0" t="n">
         <f aca="false">E67+K67+Q67+W67</f>
@@ -6772,15 +6774,15 @@
       </c>
       <c r="AD67" s="4" t="n">
         <f aca="false">AB67/(AB67+AC67)</f>
-        <v>0.530612244897959</v>
+        <v>0.5</v>
       </c>
       <c r="AE67" s="4" t="n">
         <f aca="false">AB67/AA67</f>
-        <v>0.366197183098592</v>
+        <v>0.323943661971831</v>
       </c>
       <c r="AF67" s="4" t="n">
         <f aca="false">(2*AD67*AE67)/(AD67+AE67)</f>
-        <v>0.433333333333333</v>
+        <v>0.393162393162393</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6806,22 +6808,22 @@
         <v>0.909090909090909</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K68" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L68" s="4" t="n">
-        <v>0.888888888888889</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="M68" s="4" t="n">
-        <v>0.8</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="N68" s="4" t="n">
-        <v>0.842105263157895</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="O68" s="0" t="n">
         <v>3</v>
@@ -6848,40 +6850,40 @@
         <v>3</v>
       </c>
       <c r="W68" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="X68" s="4" t="n">
-        <v>0.5</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="Y68" s="4" t="n">
         <v>0.0967741935483871</v>
       </c>
       <c r="Z68" s="4" t="n">
-        <v>0.162162162162162</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="AA68" s="0" t="n">
         <f aca="false">C68+I68+O68+U68</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB68" s="0" t="n">
         <f aca="false">D68+J68+P68+V68</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC68" s="0" t="n">
         <f aca="false">E68+K68+Q68+W68</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AD68" s="4" t="n">
         <f aca="false">AB68/(AB68+AC68)</f>
-        <v>0.8</v>
+        <v>0.676470588235294</v>
       </c>
       <c r="AE68" s="4" t="n">
         <f aca="false">AB68/AA68</f>
-        <v>0.406779661016949</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="AF68" s="4" t="n">
         <f aca="false">(2*AD68*AE68)/(AD68+AE68)</f>
-        <v>0.539325842696629</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6907,7 +6909,7 @@
         <v>0.8</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J69" s="0" t="n">
         <v>1</v>
@@ -6919,10 +6921,10 @@
         <v>0.5</v>
       </c>
       <c r="M69" s="4" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="N69" s="4" t="n">
-        <v>0.153846153846154</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="O69" s="0" t="n">
         <v>107</v>
@@ -6949,20 +6951,20 @@
         <v>4</v>
       </c>
       <c r="W69" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X69" s="4" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="Y69" s="4" t="n">
         <v>0.121212121212121</v>
       </c>
       <c r="Z69" s="4" t="n">
-        <v>0.205128205128205</v>
+        <v>0.195121951219512</v>
       </c>
       <c r="AA69" s="0" t="n">
         <f aca="false">C69+I69+O69+U69</f>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AB69" s="0" t="n">
         <f aca="false">D69+J69+P69+V69</f>
@@ -6970,19 +6972,19 @@
       </c>
       <c r="AC69" s="0" t="n">
         <f aca="false">E69+K69+Q69+W69</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AD69" s="4" t="n">
         <f aca="false">AB69/(AB69+AC69)</f>
-        <v>0.769230769230769</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="AE69" s="4" t="n">
         <f aca="false">AB69/AA69</f>
-        <v>0.718954248366013</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="AF69" s="4" t="n">
         <f aca="false">(2*AD69*AE69)/(AD69+AE69)</f>
-        <v>0.743243243243243</v>
+        <v>0.735785953177258</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7252,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="W72" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X72" s="4" t="n">
         <v>0</v>
@@ -7273,7 +7275,7 @@
       </c>
       <c r="AC72" s="0" t="n">
         <f aca="false">E72+K72+Q72+W72</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD72" s="4" t="n">
         <f aca="false">AB72/(AB72+AC72)</f>
@@ -7555,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="W75" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X75" s="4" t="n">
         <v>0</v>
@@ -7576,7 +7578,7 @@
       </c>
       <c r="AC75" s="0" t="n">
         <f aca="false">E75+K75+Q75+W75</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD75" s="4" t="n">
         <f aca="false">AB75/(AB75+AC75)</f>
@@ -7621,23 +7623,23 @@
       </c>
       <c r="J76" s="5" t="n">
         <f aca="false">SUM(J62:J75)</f>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K76" s="5" t="n">
         <f aca="false">SUM(K62:K75)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L76" s="6" t="n">
         <f aca="false">J76/(J76+K76)</f>
-        <v>0.813186813186813</v>
+        <v>0.802197802197802</v>
       </c>
       <c r="M76" s="6" t="n">
         <f aca="false">J76/I76</f>
-        <v>0.44578313253012</v>
+        <v>0.439759036144578</v>
       </c>
       <c r="N76" s="6" t="n">
         <f aca="false">(2*L76*M76)/(L76+M76)</f>
-        <v>0.575875486381323</v>
+        <v>0.568093385214008</v>
       </c>
       <c r="O76" s="7" t="n">
         <v>150</v>
@@ -7667,23 +7669,23 @@
       </c>
       <c r="V76" s="7" t="n">
         <f aca="false">SUM(V62:V75)</f>
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="W76" s="7" t="n">
         <f aca="false">SUM(W62:W75)</f>
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="X76" s="6" t="n">
         <f aca="false">V76/(V76+W76)</f>
-        <v>0.547008547008547</v>
+        <v>0.521367521367521</v>
       </c>
       <c r="Y76" s="6" t="n">
         <f aca="false">V76/U76</f>
-        <v>0.439862542955326</v>
+        <v>0.419243986254296</v>
       </c>
       <c r="Z76" s="6" t="n">
         <f aca="false">(2*X76*Y76)/(X76+Y76)</f>
-        <v>0.487619047619048</v>
+        <v>0.464761904761905</v>
       </c>
       <c r="AA76" s="5" t="n">
         <f aca="false">C76+I76+O76+U76</f>
@@ -7691,23 +7693,23 @@
       </c>
       <c r="AB76" s="5" t="n">
         <f aca="false">D76+J76+P76+V76</f>
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="AC76" s="5" t="n">
         <f aca="false">E76+K76+Q76+W76</f>
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="AD76" s="6" t="n">
         <f aca="false">AB76/(AB76+AC76)</f>
-        <v>0.625520110957004</v>
+        <v>0.60748959778086</v>
       </c>
       <c r="AE76" s="6" t="n">
         <f aca="false">AB76/AA76</f>
-        <v>0.491285403050109</v>
+        <v>0.477124183006536</v>
       </c>
       <c r="AF76" s="6" t="n">
         <f aca="false">(2*AD76*AE76)/(AD76+AE76)</f>
-        <v>0.550335570469799</v>
+        <v>0.534472239170226</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7742,16 +7744,16 @@
         <v>48</v>
       </c>
       <c r="K77" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L77" s="4" t="n">
-        <v>0.813559322033898</v>
+        <v>0.8</v>
       </c>
       <c r="M77" s="4" t="n">
         <v>0.979591836734694</v>
       </c>
       <c r="N77" s="4" t="n">
-        <v>0.888888888888889</v>
+        <v>0.880733944954129</v>
       </c>
       <c r="O77" s="0" t="n">
         <v>5</v>
@@ -7775,19 +7777,19 @@
         <v>179</v>
       </c>
       <c r="V77" s="0" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="W77" s="0" t="n">
         <v>110</v>
       </c>
       <c r="X77" s="4" t="n">
-        <v>0.549180327868853</v>
+        <v>0.552845528455285</v>
       </c>
       <c r="Y77" s="4" t="n">
-        <v>0.748603351955307</v>
+        <v>0.759776536312849</v>
       </c>
       <c r="Z77" s="4" t="n">
-        <v>0.633569739952719</v>
+        <v>0.64</v>
       </c>
       <c r="AA77" s="0" t="n">
         <f aca="false">C77+I77+O77+U77</f>
@@ -7795,23 +7797,23 @@
       </c>
       <c r="AB77" s="0" t="n">
         <f aca="false">D77+J77+P77+V77</f>
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AC77" s="0" t="n">
         <f aca="false">E77+K77+Q77+W77</f>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD77" s="4" t="n">
         <f aca="false">AB77/(AB77+AC77)</f>
-        <v>0.601941747572815</v>
+        <v>0.602564102564102</v>
       </c>
       <c r="AE77" s="4" t="n">
         <f aca="false">AB77/AA77</f>
-        <v>0.778242677824268</v>
+        <v>0.786610878661088</v>
       </c>
       <c r="AF77" s="4" t="n">
         <f aca="false">(2*AD77*AE77)/(AD77+AE77)</f>
-        <v>0.678832116788321</v>
+        <v>0.682395644283121</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7861,7 +7863,7 @@
         <v>0</v>
       </c>
       <c r="Q78" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R78" s="4" t="n">
         <v>0</v>
@@ -7879,16 +7881,16 @@
         <v>96</v>
       </c>
       <c r="W78" s="0" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="X78" s="4" t="n">
-        <v>0.548571428571429</v>
+        <v>0.554913294797688</v>
       </c>
       <c r="Y78" s="4" t="n">
         <v>0.60377358490566</v>
       </c>
       <c r="Z78" s="4" t="n">
-        <v>0.574850299401198</v>
+        <v>0.578313253012048</v>
       </c>
       <c r="AA78" s="0" t="n">
         <f aca="false">C78+I78+O78+U78</f>
@@ -8265,16 +8267,16 @@
         <v>1</v>
       </c>
       <c r="Q82" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R82" s="4" t="n">
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="S82" s="4" t="n">
         <v>0.166666666666667</v>
       </c>
       <c r="T82" s="4" t="n">
-        <v>0.222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="U82" s="0" t="n">
         <v>61</v>
@@ -8283,16 +8285,16 @@
         <v>17</v>
       </c>
       <c r="W82" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X82" s="4" t="n">
-        <v>0.472222222222222</v>
+        <v>0.485714285714286</v>
       </c>
       <c r="Y82" s="4" t="n">
         <v>0.278688524590164</v>
       </c>
       <c r="Z82" s="4" t="n">
-        <v>0.350515463917526</v>
+        <v>0.354166666666667</v>
       </c>
       <c r="AA82" s="0" t="n">
         <f aca="false">C82+I82+O82+U82</f>
@@ -8342,22 +8344,22 @@
         <v>0.909090909090909</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J83" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K83" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L83" s="4" t="n">
-        <v>0.888888888888889</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="M83" s="4" t="n">
-        <v>0.8</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="N83" s="4" t="n">
-        <v>0.842105263157895</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="O83" s="0" t="n">
         <v>3</v>
@@ -8397,11 +8399,11 @@
       </c>
       <c r="AA83" s="0" t="n">
         <f aca="false">C83+I83+O83+U83</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB83" s="0" t="n">
         <f aca="false">D83+J83+P83+V83</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC83" s="0" t="n">
         <f aca="false">E83+K83+Q83+W83</f>
@@ -8409,15 +8411,15 @@
       </c>
       <c r="AD83" s="4" t="n">
         <f aca="false">AB83/(AB83+AC83)</f>
-        <v>0.821428571428571</v>
+        <v>0.814814814814815</v>
       </c>
       <c r="AE83" s="4" t="n">
         <f aca="false">AB83/AA83</f>
-        <v>0.389830508474576</v>
+        <v>0.379310344827586</v>
       </c>
       <c r="AF83" s="4" t="n">
         <f aca="false">(2*AD83*AE83)/(AD83+AE83)</f>
-        <v>0.528735632183908</v>
+        <v>0.517647058823529</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8443,7 +8445,7 @@
         <v>0.8</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J84" s="0" t="n">
         <v>3</v>
@@ -8455,28 +8457,28 @@
         <v>0.75</v>
       </c>
       <c r="M84" s="4" t="n">
-        <v>0.272727272727273</v>
+        <v>0.25</v>
       </c>
       <c r="N84" s="4" t="n">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="O84" s="0" t="n">
         <v>107</v>
       </c>
       <c r="P84" s="0" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q84" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R84" s="4" t="n">
-        <v>0.777777777777778</v>
+        <v>0.78030303030303</v>
       </c>
       <c r="S84" s="4" t="n">
-        <v>0.981308411214953</v>
+        <v>0.962616822429906</v>
       </c>
       <c r="T84" s="4" t="n">
-        <v>0.867768595041322</v>
+        <v>0.861924686192469</v>
       </c>
       <c r="U84" s="0" t="n">
         <v>33</v>
@@ -8485,24 +8487,24 @@
         <v>3</v>
       </c>
       <c r="W84" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X84" s="4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Y84" s="4" t="n">
         <v>0.0909090909090909</v>
       </c>
       <c r="Z84" s="4" t="n">
-        <v>0.157894736842105</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="AA84" s="0" t="n">
         <f aca="false">C84+I84+O84+U84</f>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AB84" s="0" t="n">
         <f aca="false">D84+J84+P84+V84</f>
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AC84" s="0" t="n">
         <f aca="false">E84+K84+Q84+W84</f>
@@ -8510,15 +8512,15 @@
       </c>
       <c r="AD84" s="4" t="n">
         <f aca="false">AB84/(AB84+AC84)</f>
-        <v>0.768707482993197</v>
+        <v>0.76551724137931</v>
       </c>
       <c r="AE84" s="4" t="n">
         <f aca="false">AB84/AA84</f>
-        <v>0.738562091503268</v>
+        <v>0.720779220779221</v>
       </c>
       <c r="AF84" s="4" t="n">
         <f aca="false">(2*AD84*AE84)/(AD84+AE84)</f>
-        <v>0.753333333333333</v>
+        <v>0.74247491638796</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9157,69 +9159,69 @@
       </c>
       <c r="J91" s="5" t="n">
         <f aca="false">SUM(J77:J90)</f>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K91" s="5" t="n">
         <f aca="false">SUM(K77:K90)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L91" s="6" t="n">
         <f aca="false">J91/(J91+K91)</f>
-        <v>0.835164835164835</v>
+        <v>0.824175824175824</v>
       </c>
       <c r="M91" s="6" t="n">
         <f aca="false">J91/I91</f>
-        <v>0.457831325301205</v>
+        <v>0.451807228915663</v>
       </c>
       <c r="N91" s="6" t="n">
         <f aca="false">(2*L91*M91)/(L91+M91)</f>
-        <v>0.591439688715953</v>
+        <v>0.583657587548638</v>
       </c>
       <c r="O91" s="7" t="n">
         <v>150</v>
       </c>
       <c r="P91" s="7" t="n">
         <f aca="false">SUM(P77:P90)</f>
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q91" s="7" t="n">
         <f aca="false">SUM(Q77:Q90)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R91" s="6" t="n">
         <f aca="false">P91/(P91+Q91)</f>
-        <v>0.746478873239437</v>
+        <v>0.732394366197183</v>
       </c>
       <c r="S91" s="6" t="n">
         <f aca="false">P91/O91</f>
-        <v>0.706666666666667</v>
+        <v>0.693333333333333</v>
       </c>
       <c r="T91" s="6" t="n">
         <f aca="false">(2*R91*S91)/(R91+S91)</f>
-        <v>0.726027397260274</v>
+        <v>0.712328767123288</v>
       </c>
       <c r="U91" s="7" t="n">
         <v>582</v>
       </c>
       <c r="V91" s="7" t="n">
         <f aca="false">SUM(V77:V90)</f>
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="W91" s="7" t="n">
         <f aca="false">SUM(W77:W90)</f>
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="X91" s="6" t="n">
         <f aca="false">V91/(V91+W91)</f>
-        <v>0.538461538461538</v>
+        <v>0.542735042735043</v>
       </c>
       <c r="Y91" s="6" t="n">
         <f aca="false">V91/U91</f>
-        <v>0.432989690721649</v>
+        <v>0.436426116838488</v>
       </c>
       <c r="Z91" s="6" t="n">
         <f aca="false">(2*X91*Y91)/(X91+Y91)</f>
-        <v>0.48</v>
+        <v>0.483809523809524</v>
       </c>
       <c r="AA91" s="5" t="n">
         <f aca="false">C91+I91+O91+U91</f>
@@ -9227,23 +9229,23 @@
       </c>
       <c r="AB91" s="5" t="n">
         <f aca="false">D91+J91+P91+V91</f>
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC91" s="5" t="n">
         <f aca="false">E91+K91+Q91+W91</f>
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AD91" s="6" t="n">
         <f aca="false">AB91/(AB91+AC91)</f>
-        <v>0.625520110957004</v>
+        <v>0.624133148404993</v>
       </c>
       <c r="AE91" s="6" t="n">
         <f aca="false">AB91/AA91</f>
-        <v>0.491285403050109</v>
+        <v>0.490196078431373</v>
       </c>
       <c r="AF91" s="6" t="n">
         <f aca="false">(2*AD91*AE91)/(AD91+AE91)</f>
-        <v>0.550335570469799</v>
+        <v>0.549115314215985</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9278,16 +9280,16 @@
         <v>48</v>
       </c>
       <c r="K92" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L92" s="4" t="n">
-        <v>0.813559322033898</v>
+        <v>0.8</v>
       </c>
       <c r="M92" s="4" t="n">
         <v>0.979591836734694</v>
       </c>
       <c r="N92" s="4" t="n">
-        <v>0.888888888888889</v>
+        <v>0.880733944954129</v>
       </c>
       <c r="O92" s="0" t="n">
         <v>5</v>
@@ -9311,19 +9313,19 @@
         <v>179</v>
       </c>
       <c r="V92" s="0" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="W92" s="0" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="X92" s="4" t="n">
-        <v>0.558823529411765</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="Y92" s="4" t="n">
-        <v>0.743016759776536</v>
+        <v>0.726256983240223</v>
       </c>
       <c r="Z92" s="4" t="n">
-        <v>0.6378896882494</v>
+        <v>0.620525059665871</v>
       </c>
       <c r="AA92" s="0" t="n">
         <f aca="false">C92+I92+O92+U92</f>
@@ -9331,23 +9333,23 @@
       </c>
       <c r="AB92" s="0" t="n">
         <f aca="false">D92+J92+P92+V92</f>
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AC92" s="0" t="n">
         <f aca="false">E92+K92+Q92+W92</f>
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AD92" s="4" t="n">
         <f aca="false">AB92/(AB92+AC92)</f>
-        <v>0.610561056105611</v>
+        <v>0.594771241830065</v>
       </c>
       <c r="AE92" s="4" t="n">
         <f aca="false">AB92/AA92</f>
-        <v>0.774058577405858</v>
+        <v>0.761506276150628</v>
       </c>
       <c r="AF92" s="4" t="n">
         <f aca="false">(2*AD92*AE92)/(AD92+AE92)</f>
-        <v>0.682656826568266</v>
+        <v>0.667889908256881</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9415,19 +9417,19 @@
         <v>159</v>
       </c>
       <c r="V93" s="0" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="W93" s="0" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="X93" s="4" t="n">
-        <v>0.549132947976879</v>
+        <v>0.549382716049383</v>
       </c>
       <c r="Y93" s="4" t="n">
-        <v>0.59748427672956</v>
+        <v>0.559748427672956</v>
       </c>
       <c r="Z93" s="4" t="n">
-        <v>0.572289156626506</v>
+        <v>0.554517133956386</v>
       </c>
       <c r="AA93" s="0" t="n">
         <f aca="false">C93+I93+O93+U93</f>
@@ -9435,23 +9437,23 @@
       </c>
       <c r="AB93" s="0" t="n">
         <f aca="false">D93+J93+P93+V93</f>
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AC93" s="0" t="n">
         <f aca="false">E93+K93+Q93+W93</f>
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AD93" s="4" t="n">
         <f aca="false">AB93/(AB93+AC93)</f>
-        <v>0.566844919786096</v>
+        <v>0.568181818181818</v>
       </c>
       <c r="AE93" s="4" t="n">
         <f aca="false">AB93/AA93</f>
-        <v>0.602272727272727</v>
+        <v>0.568181818181818</v>
       </c>
       <c r="AF93" s="4" t="n">
         <f aca="false">(2*AD93*AE93)/(AD93+AE93)</f>
-        <v>0.584022038567493</v>
+        <v>0.568181818181818</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9819,19 +9821,19 @@
         <v>61</v>
       </c>
       <c r="V97" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="W97" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X97" s="4" t="n">
-        <v>0.51219512195122</v>
+        <v>0.473684210526316</v>
       </c>
       <c r="Y97" s="4" t="n">
-        <v>0.344262295081967</v>
+        <v>0.295081967213115</v>
       </c>
       <c r="Z97" s="4" t="n">
-        <v>0.411764705882353</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="AA97" s="0" t="n">
         <f aca="false">C97+I97+O97+U97</f>
@@ -9839,7 +9841,7 @@
       </c>
       <c r="AB97" s="0" t="n">
         <f aca="false">D97+J97+P97+V97</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC97" s="0" t="n">
         <f aca="false">E97+K97+Q97+W97</f>
@@ -9847,15 +9849,15 @@
       </c>
       <c r="AD97" s="4" t="n">
         <f aca="false">AB97/(AB97+AC97)</f>
-        <v>0.530612244897959</v>
+        <v>0.5</v>
       </c>
       <c r="AE97" s="4" t="n">
         <f aca="false">AB97/AA97</f>
-        <v>0.366197183098592</v>
+        <v>0.323943661971831</v>
       </c>
       <c r="AF97" s="4" t="n">
         <f aca="false">(2*AD97*AE97)/(AD97+AE97)</f>
-        <v>0.433333333333333</v>
+        <v>0.393162393162393</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9881,22 +9883,22 @@
         <v>0.909090909090909</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J98" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K98" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L98" s="4" t="n">
-        <v>0.888888888888889</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="M98" s="4" t="n">
-        <v>0.8</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="N98" s="4" t="n">
-        <v>0.842105263157895</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="O98" s="0" t="n">
         <v>3</v>
@@ -9923,40 +9925,40 @@
         <v>3</v>
       </c>
       <c r="W98" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="X98" s="4" t="n">
-        <v>0.5</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="Y98" s="4" t="n">
         <v>0.0967741935483871</v>
       </c>
       <c r="Z98" s="4" t="n">
-        <v>0.162162162162162</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="AA98" s="0" t="n">
         <f aca="false">C98+I98+O98+U98</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB98" s="0" t="n">
         <f aca="false">D98+J98+P98+V98</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC98" s="0" t="n">
         <f aca="false">E98+K98+Q98+W98</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AD98" s="4" t="n">
         <f aca="false">AB98/(AB98+AC98)</f>
-        <v>0.8</v>
+        <v>0.676470588235294</v>
       </c>
       <c r="AE98" s="4" t="n">
         <f aca="false">AB98/AA98</f>
-        <v>0.406779661016949</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="AF98" s="4" t="n">
         <f aca="false">(2*AD98*AE98)/(AD98+AE98)</f>
-        <v>0.539325842696629</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9982,7 +9984,7 @@
         <v>0.8</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J99" s="0" t="n">
         <v>3</v>
@@ -9994,10 +9996,10 @@
         <v>0.75</v>
       </c>
       <c r="M99" s="4" t="n">
-        <v>0.272727272727273</v>
+        <v>0.25</v>
       </c>
       <c r="N99" s="4" t="n">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="O99" s="0" t="n">
         <v>107</v>
@@ -10024,20 +10026,20 @@
         <v>4</v>
       </c>
       <c r="W99" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X99" s="4" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="Y99" s="4" t="n">
         <v>0.121212121212121</v>
       </c>
       <c r="Z99" s="4" t="n">
-        <v>0.205128205128205</v>
+        <v>0.195121951219512</v>
       </c>
       <c r="AA99" s="0" t="n">
         <f aca="false">C99+I99+O99+U99</f>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AB99" s="0" t="n">
         <f aca="false">D99+J99+P99+V99</f>
@@ -10045,19 +10047,19 @@
       </c>
       <c r="AC99" s="0" t="n">
         <f aca="false">E99+K99+Q99+W99</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AD99" s="4" t="n">
         <f aca="false">AB99/(AB99+AC99)</f>
-        <v>0.772413793103448</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="AE99" s="4" t="n">
         <f aca="false">AB99/AA99</f>
-        <v>0.73202614379085</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="AF99" s="4" t="n">
         <f aca="false">(2*AD99*AE99)/(AD99+AE99)</f>
-        <v>0.751677852348993</v>
+        <v>0.744186046511628</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10327,7 +10329,7 @@
         <v>0</v>
       </c>
       <c r="W102" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X102" s="4" t="n">
         <v>0</v>
@@ -10348,7 +10350,7 @@
       </c>
       <c r="AC102" s="0" t="n">
         <f aca="false">E102+K102+Q102+W102</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD102" s="4" t="n">
         <f aca="false">AB102/(AB102+AC102)</f>
@@ -10630,7 +10632,7 @@
         <v>0</v>
       </c>
       <c r="W105" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X105" s="4" t="n">
         <v>0</v>
@@ -10651,7 +10653,7 @@
       </c>
       <c r="AC105" s="0" t="n">
         <f aca="false">E105+K105+Q105+W105</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD105" s="4" t="n">
         <f aca="false">AB105/(AB105+AC105)</f>
@@ -10696,23 +10698,23 @@
       </c>
       <c r="J106" s="5" t="n">
         <f aca="false">SUM(J92:J105)</f>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K106" s="5" t="n">
         <f aca="false">SUM(K92:K105)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L106" s="6" t="n">
         <f aca="false">J106/(J106+K106)</f>
-        <v>0.835164835164835</v>
+        <v>0.824175824175824</v>
       </c>
       <c r="M106" s="6" t="n">
         <f aca="false">J106/I106</f>
-        <v>0.457831325301205</v>
+        <v>0.451807228915663</v>
       </c>
       <c r="N106" s="6" t="n">
         <f aca="false">(2*L106*M106)/(L106+M106)</f>
-        <v>0.591439688715953</v>
+        <v>0.583657587548638</v>
       </c>
       <c r="O106" s="7" t="n">
         <v>150</v>
@@ -10742,23 +10744,23 @@
       </c>
       <c r="V106" s="7" t="n">
         <f aca="false">SUM(V92:V105)</f>
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="W106" s="7" t="n">
         <f aca="false">SUM(W92:W105)</f>
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="X106" s="6" t="n">
         <f aca="false">V106/(V106+W106)</f>
-        <v>0.547008547008547</v>
+        <v>0.521367521367521</v>
       </c>
       <c r="Y106" s="6" t="n">
         <f aca="false">V106/U106</f>
-        <v>0.439862542955326</v>
+        <v>0.419243986254296</v>
       </c>
       <c r="Z106" s="6" t="n">
         <f aca="false">(2*X106*Y106)/(X106+Y106)</f>
-        <v>0.487619047619048</v>
+        <v>0.464761904761905</v>
       </c>
       <c r="AA106" s="5" t="n">
         <f aca="false">C106+I106+O106+U106</f>
@@ -10766,23 +10768,23 @@
       </c>
       <c r="AB106" s="5" t="n">
         <f aca="false">D106+J106+P106+V106</f>
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="AC106" s="5" t="n">
         <f aca="false">E106+K106+Q106+W106</f>
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="AD106" s="6" t="n">
         <f aca="false">AB106/(AB106+AC106)</f>
-        <v>0.628294036061026</v>
+        <v>0.610263522884882</v>
       </c>
       <c r="AE106" s="6" t="n">
         <f aca="false">AB106/AA106</f>
-        <v>0.493464052287582</v>
+        <v>0.479302832244009</v>
       </c>
       <c r="AF106" s="6" t="n">
         <f aca="false">(2*AD106*AE106)/(AD106+AE106)</f>
-        <v>0.552776082977425</v>
+        <v>0.536912751677852</v>
       </c>
     </row>
   </sheetData>
@@ -10810,8 +10812,8 @@
   </sheetPr>
   <dimension ref="A1:AF106"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA16" activeCellId="1" sqref="AH30:AN35 AA16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG47" activeCellId="1" sqref="AG62:AN78 AG47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10834,7 +10836,12 @@
     <col collapsed="false" hidden="false" max="26" min="24" style="4" width="7.07142857142857"/>
     <col collapsed="false" hidden="false" max="29" min="27" style="0" width="4.53571428571429"/>
     <col collapsed="false" hidden="false" max="32" min="30" style="0" width="7.49489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="36" min="34" style="0" width="2.56632653061224"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="6.19897959183674"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="6.9030612244898"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="5.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10941,7 +10948,7 @@
         <v>0</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V2" s="0" t="n">
         <v>21</v>
@@ -10953,14 +10960,14 @@
         <v>0.954545454545455</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.954545454545455</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.954545454545455</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="AA2" s="0" t="n">
         <f aca="false">C2+I2+O2+U2</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AB2" s="0" t="n">
         <f aca="false">D2+J2+P2+V2</f>
@@ -10976,11 +10983,11 @@
       </c>
       <c r="AE2" s="4" t="n">
         <f aca="false">AB2/AA2</f>
-        <v>0.848484848484848</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="AF2" s="4" t="n">
         <f aca="false">(2*AD2*AE2)/(AD2+AE2)</f>
-        <v>0.888888888888889</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11226,7 +11233,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>0</v>
@@ -11263,7 +11270,7 @@
       </c>
       <c r="AA5" s="0" t="n">
         <f aca="false">C5+I5+O5+U5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="0" t="n">
         <f aca="false">D5+J5+P5+V5</f>
@@ -11277,9 +11284,9 @@
         <f aca="false">AB5/(AB5+AC5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE5" s="4" t="e">
+      <c r="AE5" s="4" t="n">
         <f aca="false">AB5/AA5</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="e">
         <f aca="false">(2*AD5*AE5)/(AD5+AE5)</f>
@@ -11446,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V7" s="0" t="n">
         <v>0</v>
@@ -11465,7 +11472,7 @@
       </c>
       <c r="AA7" s="0" t="n">
         <f aca="false">C7+I7+O7+U7</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB7" s="0" t="n">
         <f aca="false">D7+J7+P7+V7</f>
@@ -11481,11 +11488,11 @@
       </c>
       <c r="AE7" s="4" t="n">
         <f aca="false">AB7/AA7</f>
-        <v>0.571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="AF7" s="4" t="n">
         <f aca="false">(2*AD7*AE7)/(AD7+AE7)</f>
-        <v>0.727272727272727</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11553,7 +11560,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="4" t="n">
         <v>0</v>
@@ -11574,11 +11581,11 @@
       </c>
       <c r="AC8" s="0" t="n">
         <f aca="false">E8+K8+Q8+W8</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD8" s="4" t="n">
         <f aca="false">AB8/(AB8+AC8)</f>
-        <v>0.842105263157895</v>
+        <v>0.8</v>
       </c>
       <c r="AE8" s="4" t="n">
         <f aca="false">AB8/AA8</f>
@@ -11586,7 +11593,7 @@
       </c>
       <c r="AF8" s="4" t="n">
         <f aca="false">(2*AD8*AE8)/(AD8+AE8)</f>
-        <v>0.888888888888889</v>
+        <v>0.864864864864865</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11630,22 +11637,22 @@
         <v>0</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="0" t="n">
         <v>5</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.925373134328358</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="S9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>0.961240310077519</v>
+        <v>0.962962962962963</v>
       </c>
       <c r="U9" s="0" t="n">
         <v>2</v>
@@ -11654,40 +11661,40 @@
         <v>2</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA9" s="0" t="n">
         <f aca="false">C9+I9+O9+U9</f>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AB9" s="0" t="n">
         <f aca="false">D9+J9+P9+V9</f>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AC9" s="0" t="n">
         <f aca="false">E9+K9+Q9+W9</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD9" s="4" t="n">
         <f aca="false">AB9/(AB9+AC9)</f>
-        <v>0.916666666666667</v>
+        <v>0.907894736842105</v>
       </c>
       <c r="AE9" s="4" t="n">
         <f aca="false">AB9/AA9</f>
-        <v>0.985074626865672</v>
+        <v>0.985714285714286</v>
       </c>
       <c r="AF9" s="4" t="n">
         <f aca="false">(2*AD9*AE9)/(AD9+AE9)</f>
-        <v>0.949640287769784</v>
+        <v>0.945205479452055</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12135,7 +12142,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="0" t="n">
         <v>0</v>
@@ -12172,7 +12179,7 @@
       </c>
       <c r="AA14" s="0" t="n">
         <f aca="false">C14+I14+O14+U14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="0" t="n">
         <f aca="false">D14+J14+P14+V14</f>
@@ -12186,9 +12193,9 @@
         <f aca="false">AB14/(AB14+AC14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE14" s="4" t="n">
+      <c r="AE14" s="4" t="e">
         <f aca="false">AB14/AA14</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AF14" s="4" t="e">
         <f aca="false">(2*AD14*AE14)/(AD14+AE14)</f>
@@ -12349,7 +12356,7 @@
       </c>
       <c r="P16" s="7" t="n">
         <f aca="false">SUM(P2:P15)</f>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="7" t="n">
         <f aca="false">SUM(Q2:Q15)</f>
@@ -12357,15 +12364,15 @@
       </c>
       <c r="R16" s="6" t="n">
         <f aca="false">P16/(P16+Q16)</f>
-        <v>0.898550724637681</v>
+        <v>0.902777777777778</v>
       </c>
       <c r="S16" s="6" t="n">
         <f aca="false">P16/O16</f>
-        <v>0.413333333333333</v>
+        <v>0.433333333333333</v>
       </c>
       <c r="T16" s="6" t="n">
         <f aca="false">(2*R16*S16)/(R16+S16)</f>
-        <v>0.5662100456621</v>
+        <v>0.585585585585586</v>
       </c>
       <c r="U16" s="7" t="n">
         <v>582</v>
@@ -12376,11 +12383,11 @@
       </c>
       <c r="W16" s="7" t="n">
         <f aca="false">SUM(W2:W15)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X16" s="6" t="n">
         <f aca="false">V16/(V16+W16)</f>
-        <v>0.952380952380952</v>
+        <v>0.909090909090909</v>
       </c>
       <c r="Y16" s="6" t="n">
         <f aca="false">V16/U16</f>
@@ -12388,7 +12395,7 @@
       </c>
       <c r="Z16" s="6" t="n">
         <f aca="false">(2*X16*Y16)/(X16+Y16)</f>
-        <v>0.128205128205128</v>
+        <v>0.12779552715655</v>
       </c>
       <c r="AA16" s="5" t="n">
         <f aca="false">C16+I16+O16+U16</f>
@@ -12396,23 +12403,23 @@
       </c>
       <c r="AB16" s="5" t="n">
         <f aca="false">D16+J16+P16+V16</f>
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AC16" s="5" t="n">
         <f aca="false">E16+K16+Q16+W16</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD16" s="6" t="n">
         <f aca="false">AB16/(AB16+AC16)</f>
-        <v>0.905063291139241</v>
+        <v>0.895705521472393</v>
       </c>
       <c r="AE16" s="6" t="n">
         <f aca="false">AB16/AA16</f>
-        <v>0.155773420479303</v>
+        <v>0.159041394335512</v>
       </c>
       <c r="AF16" s="6" t="n">
         <f aca="false">(2*AD16*AE16)/(AD16+AE16)</f>
-        <v>0.265799256505576</v>
+        <v>0.270120259019426</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12465,19 +12472,19 @@
         <v>210</v>
       </c>
       <c r="V17" s="0" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="W17" s="0" t="n">
         <v>145</v>
       </c>
       <c r="X17" s="4" t="n">
-        <v>0.519867549668874</v>
+        <v>0.523026315789474</v>
       </c>
       <c r="Y17" s="4" t="n">
-        <v>0.747619047619048</v>
+        <v>0.757142857142857</v>
       </c>
       <c r="Z17" s="4" t="n">
-        <v>0.61328125</v>
+        <v>0.618677042801556</v>
       </c>
       <c r="AA17" s="0" t="n">
         <f aca="false">C17+I17+O17+U17</f>
@@ -12485,7 +12492,7 @@
       </c>
       <c r="AB17" s="0" t="n">
         <f aca="false">D17+J17+P17+V17</f>
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AC17" s="0" t="n">
         <f aca="false">E17+K17+Q17+W17</f>
@@ -12493,15 +12500,15 @@
       </c>
       <c r="AD17" s="4" t="n">
         <f aca="false">AB17/(AB17+AC17)</f>
-        <v>0.588669950738916</v>
+        <v>0.590686274509804</v>
       </c>
       <c r="AE17" s="4" t="n">
         <f aca="false">AB17/AA17</f>
-        <v>0.783606557377049</v>
+        <v>0.790163934426229</v>
       </c>
       <c r="AF17" s="4" t="n">
         <f aca="false">(2*AD17*AE17)/(AD17+AE17)</f>
-        <v>0.672292545710267</v>
+        <v>0.67601683029453</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12536,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R18" s="4" t="n">
         <v>0</v>
@@ -12551,19 +12558,19 @@
         <v>183</v>
       </c>
       <c r="V18" s="0" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W18" s="0" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X18" s="4" t="n">
-        <v>0.541237113402062</v>
+        <v>0.54639175257732</v>
       </c>
       <c r="Y18" s="4" t="n">
-        <v>0.573770491803279</v>
+        <v>0.579234972677596</v>
       </c>
       <c r="Z18" s="4" t="n">
-        <v>0.557029177718833</v>
+        <v>0.562334217506631</v>
       </c>
       <c r="AA18" s="0" t="n">
         <f aca="false">C18+I18+O18+U18</f>
@@ -12571,23 +12578,23 @@
       </c>
       <c r="AB18" s="0" t="n">
         <f aca="false">D18+J18+P18+V18</f>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC18" s="0" t="n">
         <f aca="false">E18+K18+Q18+W18</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD18" s="4" t="n">
         <f aca="false">AB18/(AB18+AC18)</f>
-        <v>0.55868544600939</v>
+        <v>0.558139534883721</v>
       </c>
       <c r="AE18" s="4" t="n">
         <f aca="false">AB18/AA18</f>
-        <v>0.55868544600939</v>
+        <v>0.563380281690141</v>
       </c>
       <c r="AF18" s="4" t="n">
         <f aca="false">(2*AD18*AE18)/(AD18+AE18)</f>
-        <v>0.55868544600939</v>
+        <v>0.560747663551402</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12880,34 +12887,34 @@
         <v>1</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="S22" s="4" t="n">
         <v>0.166666666666667</v>
       </c>
       <c r="T22" s="4" t="n">
-        <v>0.222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="U22" s="0" t="n">
         <v>81</v>
       </c>
       <c r="V22" s="0" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W22" s="0" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="X22" s="4" t="n">
-        <v>0.388888888888889</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="Y22" s="4" t="n">
-        <v>0.345679012345679</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z22" s="4" t="n">
-        <v>0.366013071895425</v>
+        <v>0.36</v>
       </c>
       <c r="AA22" s="0" t="n">
         <f aca="false">C22+I22+O22+U22</f>
@@ -12915,23 +12922,23 @@
       </c>
       <c r="AB22" s="0" t="n">
         <f aca="false">D22+J22+P22+V22</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC22" s="0" t="n">
         <f aca="false">E22+K22+Q22+W22</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD22" s="4" t="n">
         <f aca="false">AB22/(AB22+AC22)</f>
-        <v>0.386666666666667</v>
+        <v>0.383561643835616</v>
       </c>
       <c r="AE22" s="4" t="n">
         <f aca="false">AB22/AA22</f>
-        <v>0.333333333333333</v>
+        <v>0.32183908045977</v>
       </c>
       <c r="AF22" s="4" t="n">
         <f aca="false">(2*AD22*AE22)/(AD22+AE22)</f>
-        <v>0.358024691358025</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13049,19 +13056,19 @@
         <v>112</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>0.753521126760563</v>
+        <v>0.762589928057554</v>
       </c>
       <c r="S24" s="4" t="n">
-        <v>0.955357142857143</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="T24" s="4" t="n">
-        <v>0.84251968503937</v>
+        <v>0.844621513944223</v>
       </c>
       <c r="U24" s="0" t="n">
         <v>47</v>
@@ -13070,16 +13077,16 @@
         <v>3</v>
       </c>
       <c r="W24" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X24" s="4" t="n">
-        <v>0.5</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="Y24" s="4" t="n">
         <v>0.0638297872340425</v>
       </c>
       <c r="Z24" s="4" t="n">
-        <v>0.113207547169811</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="AA24" s="0" t="n">
         <f aca="false">C24+I24+O24+U24</f>
@@ -13087,23 +13094,23 @@
       </c>
       <c r="AB24" s="0" t="n">
         <f aca="false">D24+J24+P24+V24</f>
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC24" s="0" t="n">
         <f aca="false">E24+K24+Q24+W24</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD24" s="4" t="n">
         <f aca="false">AB24/(AB24+AC24)</f>
-        <v>0.717948717948718</v>
+        <v>0.720779220779221</v>
       </c>
       <c r="AE24" s="4" t="n">
         <f aca="false">AB24/AA24</f>
-        <v>0.647398843930636</v>
+        <v>0.641618497109827</v>
       </c>
       <c r="AF24" s="4" t="n">
         <f aca="false">(2*AD24*AE24)/(AD24+AE24)</f>
-        <v>0.680851063829787</v>
+        <v>0.678899082568807</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13396,7 +13403,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R28" s="4" t="n">
         <v>0</v>
@@ -13435,7 +13442,7 @@
       </c>
       <c r="AC28" s="0" t="n">
         <f aca="false">E28+K28+Q28+W28</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD28" s="4" t="n">
         <f aca="false">AB28/(AB28+AC28)</f>
@@ -13482,7 +13489,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="4" t="n">
         <v>0</v>
@@ -13521,7 +13528,7 @@
       </c>
       <c r="AC29" s="0" t="n">
         <f aca="false">E29+K29+Q29+W29</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD29" s="4" t="n">
         <f aca="false">AB29/(AB29+AC29)</f>
@@ -13656,23 +13663,23 @@
       </c>
       <c r="P31" s="7" t="n">
         <f aca="false">SUM(P17:P30)</f>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q31" s="7" t="n">
         <f aca="false">SUM(Q17:Q30)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R31" s="6" t="n">
         <f aca="false">P31/(P31+Q31)</f>
-        <v>0.72</v>
+        <v>0.713333333333333</v>
       </c>
       <c r="S31" s="6" t="n">
         <f aca="false">P31/O31</f>
-        <v>0.72</v>
+        <v>0.713333333333333</v>
       </c>
       <c r="T31" s="6" t="n">
         <f aca="false">(2*R31*S31)/(R31+S31)</f>
-        <v>0.72</v>
+        <v>0.713333333333333</v>
       </c>
       <c r="U31" s="7" t="n">
         <f aca="false">SUM(U17:U30)</f>
@@ -13680,23 +13687,23 @@
       </c>
       <c r="V31" s="7" t="n">
         <f aca="false">SUM(V17:V30)</f>
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="W31" s="7" t="n">
         <f aca="false">SUM(W17:W30)</f>
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="X31" s="6" t="n">
         <f aca="false">V31/(V31+W31)</f>
-        <v>0.506872852233677</v>
+        <v>0.510309278350515</v>
       </c>
       <c r="Y31" s="6" t="n">
         <f aca="false">V31/U31</f>
-        <v>0.506872852233677</v>
+        <v>0.510309278350515</v>
       </c>
       <c r="Z31" s="6" t="n">
         <f aca="false">(2*X31*Y31)/(X31+Y31)</f>
-        <v>0.506872852233677</v>
+        <v>0.510309278350515</v>
       </c>
       <c r="AA31" s="5" t="n">
         <f aca="false">C31+I31+O31+U31</f>
@@ -13704,23 +13711,23 @@
       </c>
       <c r="AB31" s="5" t="n">
         <f aca="false">D31+J31+P31+V31</f>
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AC31" s="5" t="n">
         <f aca="false">E31+K31+Q31+W31</f>
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AD31" s="6" t="n">
         <f aca="false">AB31/(AB31+AC31)</f>
-        <v>0.591314031180401</v>
+        <v>0.592427616926503</v>
       </c>
       <c r="AE31" s="6" t="n">
         <f aca="false">AB31/AA31</f>
-        <v>0.591314031180401</v>
+        <v>0.592427616926503</v>
       </c>
       <c r="AF31" s="6" t="n">
         <f aca="false">(2*AD31*AE31)/(AD31+AE31)</f>
-        <v>0.591314031180401</v>
+        <v>0.592427616926503</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13785,7 +13792,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V32" s="0" t="n">
         <v>21</v>
@@ -13797,14 +13804,14 @@
         <v>0.954545454545455</v>
       </c>
       <c r="Y32" s="4" t="n">
-        <v>0.954545454545455</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="Z32" s="4" t="n">
-        <v>0.954545454545455</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="AA32" s="0" t="n">
         <f aca="false">C32+I32+O32+U32</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB32" s="0" t="n">
         <f aca="false">D32+J32+P32+V32</f>
@@ -13820,11 +13827,11 @@
       </c>
       <c r="AE32" s="4" t="n">
         <f aca="false">AB32/AA32</f>
-        <v>0.866666666666667</v>
+        <v>0.838709677419355</v>
       </c>
       <c r="AF32" s="4" t="n">
         <f aca="false">(2*AD32*AE32)/(AD32+AE32)</f>
-        <v>0.912280701754386</v>
+        <v>0.896551724137931</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14070,7 +14077,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="0" t="n">
         <v>0</v>
@@ -14107,7 +14114,7 @@
       </c>
       <c r="AA35" s="0" t="n">
         <f aca="false">C35+I35+O35+U35</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB35" s="0" t="n">
         <f aca="false">D35+J35+P35+V35</f>
@@ -14290,7 +14297,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V37" s="0" t="n">
         <v>0</v>
@@ -14309,7 +14316,7 @@
       </c>
       <c r="AA37" s="0" t="n">
         <f aca="false">C37+I37+O37+U37</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB37" s="0" t="n">
         <f aca="false">D37+J37+P37+V37</f>
@@ -14325,11 +14332,11 @@
       </c>
       <c r="AE37" s="4" t="n">
         <f aca="false">AB37/AA37</f>
-        <v>0.571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="AF37" s="4" t="n">
         <f aca="false">(2*AD37*AE37)/(AD37+AE37)</f>
-        <v>0.727272727272727</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14397,7 +14404,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" s="4" t="n">
         <v>0</v>
@@ -14418,11 +14425,11 @@
       </c>
       <c r="AC38" s="0" t="n">
         <f aca="false">E38+K38+Q38+W38</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD38" s="4" t="n">
         <f aca="false">AB38/(AB38+AC38)</f>
-        <v>0.857142857142857</v>
+        <v>0.8</v>
       </c>
       <c r="AE38" s="4" t="n">
         <f aca="false">AB38/AA38</f>
@@ -14430,7 +14437,7 @@
       </c>
       <c r="AF38" s="4" t="n">
         <f aca="false">(2*AD38*AE38)/(AD38+AE38)</f>
-        <v>0.888888888888889</v>
+        <v>0.857142857142857</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14474,22 +14481,22 @@
         <v>0.8</v>
       </c>
       <c r="O39" s="0" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q39" s="0" t="n">
         <v>5</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>0.925373134328358</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="S39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v>0.961240310077519</v>
+        <v>0.962962962962963</v>
       </c>
       <c r="U39" s="0" t="n">
         <v>2</v>
@@ -14498,40 +14505,40 @@
         <v>2</v>
       </c>
       <c r="W39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" s="4" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="Z39" s="4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA39" s="0" t="n">
         <f aca="false">C39+I39+O39+U39</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB39" s="0" t="n">
         <f aca="false">D39+J39+P39+V39</f>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC39" s="0" t="n">
         <f aca="false">E39+K39+Q39+W39</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD39" s="4" t="n">
         <f aca="false">AB39/(AB39+AC39)</f>
-        <v>0.911392405063291</v>
+        <v>0.903614457831325</v>
       </c>
       <c r="AE39" s="4" t="n">
         <f aca="false">AB39/AA39</f>
-        <v>0.986301369863014</v>
+        <v>0.986842105263158</v>
       </c>
       <c r="AF39" s="4" t="n">
         <f aca="false">(2*AD39*AE39)/(AD39+AE39)</f>
-        <v>0.947368421052632</v>
+        <v>0.943396226415094</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14979,7 +14986,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" s="0" t="n">
         <v>0</v>
@@ -15016,7 +15023,7 @@
       </c>
       <c r="AA44" s="0" t="n">
         <f aca="false">C44+I44+O44+U44</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="0" t="n">
         <f aca="false">D44+J44+P44+V44</f>
@@ -15030,9 +15037,9 @@
         <f aca="false">AB44/(AB44+AC44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE44" s="4" t="n">
+      <c r="AE44" s="4" t="e">
         <f aca="false">AB44/AA44</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AF44" s="4" t="e">
         <f aca="false">(2*AD44*AE44)/(AD44+AE44)</f>
@@ -15193,7 +15200,7 @@
       </c>
       <c r="P46" s="7" t="n">
         <f aca="false">SUM(P32:P45)</f>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q46" s="7" t="n">
         <f aca="false">SUM(Q32:Q45)</f>
@@ -15201,15 +15208,15 @@
       </c>
       <c r="R46" s="6" t="n">
         <f aca="false">P46/(P46+Q46)</f>
-        <v>0.898550724637681</v>
+        <v>0.902777777777778</v>
       </c>
       <c r="S46" s="6" t="n">
         <f aca="false">P46/O46</f>
-        <v>0.413333333333333</v>
+        <v>0.433333333333333</v>
       </c>
       <c r="T46" s="6" t="n">
         <f aca="false">(2*R46*S46)/(R46+S46)</f>
-        <v>0.5662100456621</v>
+        <v>0.585585585585586</v>
       </c>
       <c r="U46" s="7" t="n">
         <v>582</v>
@@ -15220,11 +15227,11 @@
       </c>
       <c r="W46" s="7" t="n">
         <f aca="false">SUM(W32:W45)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X46" s="6" t="n">
         <f aca="false">V46/(V46+W46)</f>
-        <v>0.952380952380952</v>
+        <v>0.909090909090909</v>
       </c>
       <c r="Y46" s="6" t="n">
         <f aca="false">V46/U46</f>
@@ -15232,7 +15239,7 @@
       </c>
       <c r="Z46" s="6" t="n">
         <f aca="false">(2*X46*Y46)/(X46+Y46)</f>
-        <v>0.128205128205128</v>
+        <v>0.12779552715655</v>
       </c>
       <c r="AA46" s="5" t="n">
         <f aca="false">C46+I46+O46+U46</f>
@@ -15240,23 +15247,23 @@
       </c>
       <c r="AB46" s="5" t="n">
         <f aca="false">D46+J46+P46+V46</f>
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AC46" s="5" t="n">
         <f aca="false">E46+K46+Q46+W46</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD46" s="6" t="n">
         <f aca="false">AB46/(AB46+AC46)</f>
-        <v>0.906832298136646</v>
+        <v>0.897590361445783</v>
       </c>
       <c r="AE46" s="6" t="n">
         <f aca="false">AB46/AA46</f>
-        <v>0.159041394335512</v>
+        <v>0.162309368191721</v>
       </c>
       <c r="AF46" s="6" t="n">
         <f aca="false">(2*AD46*AE46)/(AD46+AE46)</f>
-        <v>0.27062094531974</v>
+        <v>0.274907749077491</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15309,7 +15316,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R47" s="4" t="n">
         <v>0</v>
@@ -15324,19 +15331,19 @@
         <v>210</v>
       </c>
       <c r="V47" s="0" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="W47" s="0" t="n">
         <v>145</v>
       </c>
       <c r="X47" s="4" t="n">
-        <v>0.519867549668874</v>
+        <v>0.523026315789474</v>
       </c>
       <c r="Y47" s="4" t="n">
-        <v>0.747619047619048</v>
+        <v>0.757142857142857</v>
       </c>
       <c r="Z47" s="4" t="n">
-        <v>0.61328125</v>
+        <v>0.618677042801556</v>
       </c>
       <c r="AA47" s="0" t="n">
         <f aca="false">C47+I47+O47+U47</f>
@@ -15344,23 +15351,23 @@
       </c>
       <c r="AB47" s="0" t="n">
         <f aca="false">D47+J47+P47+V47</f>
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AC47" s="0" t="n">
         <f aca="false">E47+K47+Q47+W47</f>
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AD47" s="4" t="n">
         <f aca="false">AB47/(AB47+AC47)</f>
-        <v>0.591240875912409</v>
+        <v>0.594660194174757</v>
       </c>
       <c r="AE47" s="4" t="n">
         <f aca="false">AB47/AA47</f>
-        <v>0.781350482315113</v>
+        <v>0.787781350482315</v>
       </c>
       <c r="AF47" s="4" t="n">
         <f aca="false">(2*AD47*AE47)/(AD47+AE47)</f>
-        <v>0.673130193905817</v>
+        <v>0.677731673582296</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15410,7 +15417,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R48" s="4" t="n">
         <v>0</v>
@@ -15425,19 +15432,19 @@
         <v>183</v>
       </c>
       <c r="V48" s="0" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W48" s="0" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X48" s="4" t="n">
-        <v>0.544041450777202</v>
+        <v>0.549222797927461</v>
       </c>
       <c r="Y48" s="4" t="n">
-        <v>0.573770491803279</v>
+        <v>0.579234972677596</v>
       </c>
       <c r="Z48" s="4" t="n">
-        <v>0.558510638297872</v>
+        <v>0.563829787234043</v>
       </c>
       <c r="AA48" s="0" t="n">
         <f aca="false">C48+I48+O48+U48</f>
@@ -15445,23 +15452,23 @@
       </c>
       <c r="AB48" s="0" t="n">
         <f aca="false">D48+J48+P48+V48</f>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC48" s="0" t="n">
         <f aca="false">E48+K48+Q48+W48</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD48" s="4" t="n">
         <f aca="false">AB48/(AB48+AC48)</f>
-        <v>0.568075117370892</v>
+        <v>0.567441860465116</v>
       </c>
       <c r="AE48" s="4" t="n">
         <f aca="false">AB48/AA48</f>
-        <v>0.562790697674419</v>
+        <v>0.567441860465116</v>
       </c>
       <c r="AF48" s="4" t="n">
         <f aca="false">(2*AD48*AE48)/(AD48+AE48)</f>
-        <v>0.565420560747664</v>
+        <v>0.567441860465116</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15814,34 +15821,34 @@
         <v>1</v>
       </c>
       <c r="Q52" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="S52" s="4" t="n">
         <v>0.166666666666667</v>
       </c>
       <c r="T52" s="4" t="n">
-        <v>0.222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="U52" s="0" t="n">
         <v>81</v>
       </c>
       <c r="V52" s="0" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W52" s="0" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="X52" s="4" t="n">
-        <v>0.388888888888889</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="Y52" s="4" t="n">
-        <v>0.345679012345679</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z52" s="4" t="n">
-        <v>0.366013071895425</v>
+        <v>0.36</v>
       </c>
       <c r="AA52" s="0" t="n">
         <f aca="false">C52+I52+O52+U52</f>
@@ -15849,23 +15856,23 @@
       </c>
       <c r="AB52" s="0" t="n">
         <f aca="false">D52+J52+P52+V52</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC52" s="0" t="n">
         <f aca="false">E52+K52+Q52+W52</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD52" s="4" t="n">
         <f aca="false">AB52/(AB52+AC52)</f>
-        <v>0.417721518987342</v>
+        <v>0.415584415584416</v>
       </c>
       <c r="AE52" s="4" t="n">
         <f aca="false">AB52/AA52</f>
-        <v>0.362637362637363</v>
+        <v>0.351648351648352</v>
       </c>
       <c r="AF52" s="4" t="n">
         <f aca="false">(2*AD52*AE52)/(AD52+AE52)</f>
-        <v>0.388235294117647</v>
+        <v>0.380952380952381</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16016,16 +16023,16 @@
         <v>108</v>
       </c>
       <c r="Q54" s="0" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>0.765957446808511</v>
+        <v>0.771428571428571</v>
       </c>
       <c r="S54" s="4" t="n">
         <v>0.964285714285714</v>
       </c>
       <c r="T54" s="4" t="n">
-        <v>0.853754940711463</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="U54" s="0" t="n">
         <v>47</v>
@@ -16034,16 +16041,16 @@
         <v>3</v>
       </c>
       <c r="W54" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X54" s="4" t="n">
-        <v>0.5</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="Y54" s="4" t="n">
         <v>0.0638297872340425</v>
       </c>
       <c r="Z54" s="4" t="n">
-        <v>0.113207547169811</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="AA54" s="0" t="n">
         <f aca="false">C54+I54+O54+U54</f>
@@ -16521,7 +16528,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59" s="4" t="n">
         <v>0</v>
@@ -16560,7 +16567,7 @@
       </c>
       <c r="AC59" s="0" t="n">
         <f aca="false">E59+K59+Q59+W59</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD59" s="4" t="n">
         <f aca="false">AB59/(AB59+AC59)</f>
@@ -16755,23 +16762,23 @@
       </c>
       <c r="V61" s="7" t="n">
         <f aca="false">SUM(V47:V60)</f>
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="W61" s="7" t="n">
         <f aca="false">SUM(W47:W60)</f>
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="X61" s="6" t="n">
         <f aca="false">V61/(V61+W61)</f>
-        <v>0.506872852233677</v>
+        <v>0.510309278350515</v>
       </c>
       <c r="Y61" s="6" t="n">
         <f aca="false">V61/U61</f>
-        <v>0.506872852233677</v>
+        <v>0.510309278350515</v>
       </c>
       <c r="Z61" s="6" t="n">
         <f aca="false">(2*X61*Y61)/(X61+Y61)</f>
-        <v>0.506872852233677</v>
+        <v>0.510309278350515</v>
       </c>
       <c r="AA61" s="5" t="n">
         <f aca="false">C61+I61+O61+U61</f>
@@ -16779,23 +16786,23 @@
       </c>
       <c r="AB61" s="5" t="n">
         <f aca="false">D61+J61+P61+V61</f>
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AC61" s="5" t="n">
         <f aca="false">E61+K61+Q61+W61</f>
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AD61" s="6" t="n">
         <f aca="false">AB61/(AB61+AC61)</f>
-        <v>0.596949891067538</v>
+        <v>0.599128540305011</v>
       </c>
       <c r="AE61" s="6" t="n">
         <f aca="false">AB61/AA61</f>
-        <v>0.596949891067538</v>
+        <v>0.599128540305011</v>
       </c>
       <c r="AF61" s="6" t="n">
         <f aca="false">(2*AD61*AE61)/(AD61+AE61)</f>
-        <v>0.596949891067538</v>
+        <v>0.599128540305011</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16863,19 +16870,19 @@
         <v>210</v>
       </c>
       <c r="V62" s="0" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="W62" s="0" t="n">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="X62" s="4" t="n">
-        <v>0.541095890410959</v>
+        <v>0.513157894736842</v>
       </c>
       <c r="Y62" s="4" t="n">
-        <v>0.752380952380952</v>
+        <v>0.742857142857143</v>
       </c>
       <c r="Z62" s="4" t="n">
-        <v>0.629482071713147</v>
+        <v>0.607003891050584</v>
       </c>
       <c r="AA62" s="0" t="n">
         <f aca="false">C62+I62+O62+U62</f>
@@ -16883,23 +16890,23 @@
       </c>
       <c r="AB62" s="0" t="n">
         <f aca="false">D62+J62+P62+V62</f>
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AC62" s="0" t="n">
         <f aca="false">E62+K62+Q62+W62</f>
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="AD62" s="4" t="n">
         <f aca="false">AB62/(AB62+AC62)</f>
-        <v>0.608478802992519</v>
+        <v>0.585956416464891</v>
       </c>
       <c r="AE62" s="4" t="n">
         <f aca="false">AB62/AA62</f>
-        <v>0.784565916398714</v>
+        <v>0.778135048231511</v>
       </c>
       <c r="AF62" s="4" t="n">
         <f aca="false">(2*AD62*AE62)/(AD62+AE62)</f>
-        <v>0.685393258426966</v>
+        <v>0.668508287292818</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16967,19 +16974,19 @@
         <v>183</v>
       </c>
       <c r="V63" s="0" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="W63" s="0" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="X63" s="4" t="n">
-        <v>0.543010752688172</v>
+        <v>0.541899441340782</v>
       </c>
       <c r="Y63" s="4" t="n">
-        <v>0.551912568306011</v>
+        <v>0.530054644808743</v>
       </c>
       <c r="Z63" s="4" t="n">
-        <v>0.547425474254742</v>
+        <v>0.535911602209945</v>
       </c>
       <c r="AA63" s="0" t="n">
         <f aca="false">C63+I63+O63+U63</f>
@@ -16987,23 +16994,23 @@
       </c>
       <c r="AB63" s="0" t="n">
         <f aca="false">D63+J63+P63+V63</f>
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AC63" s="0" t="n">
         <f aca="false">E63+K63+Q63+W63</f>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AD63" s="4" t="n">
         <f aca="false">AB63/(AB63+AC63)</f>
-        <v>0.5625</v>
+        <v>0.562189054726368</v>
       </c>
       <c r="AE63" s="4" t="n">
         <f aca="false">AB63/AA63</f>
-        <v>0.544186046511628</v>
+        <v>0.525581395348837</v>
       </c>
       <c r="AF63" s="4" t="n">
         <f aca="false">(2*AD63*AE63)/(AD63+AE63)</f>
-        <v>0.553191489361702</v>
+        <v>0.543269230769231</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17371,19 +17378,19 @@
         <v>81</v>
       </c>
       <c r="V67" s="0" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="W67" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="X67" s="4" t="n">
-        <v>0.397590361445783</v>
+        <v>0.402985074626866</v>
       </c>
       <c r="Y67" s="4" t="n">
-        <v>0.407407407407407</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z67" s="4" t="n">
-        <v>0.402439024390244</v>
+        <v>0.364864864864865</v>
       </c>
       <c r="AA67" s="0" t="n">
         <f aca="false">C67+I67+O67+U67</f>
@@ -17391,23 +17398,23 @@
       </c>
       <c r="AB67" s="0" t="n">
         <f aca="false">D67+J67+P67+V67</f>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AC67" s="0" t="n">
         <f aca="false">E67+K67+Q67+W67</f>
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AD67" s="4" t="n">
         <f aca="false">AB67/(AB67+AC67)</f>
-        <v>0.417582417582418</v>
+        <v>0.426666666666667</v>
       </c>
       <c r="AE67" s="4" t="n">
         <f aca="false">AB67/AA67</f>
-        <v>0.417582417582418</v>
+        <v>0.351648351648352</v>
       </c>
       <c r="AF67" s="4" t="n">
         <f aca="false">(2*AD67*AE67)/(AD67+AE67)</f>
-        <v>0.417582417582418</v>
+        <v>0.385542168674699</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17475,16 +17482,16 @@
         <v>4</v>
       </c>
       <c r="W68" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="X68" s="4" t="n">
-        <v>0.5</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="Y68" s="4" t="n">
         <v>0.1</v>
       </c>
       <c r="Z68" s="4" t="n">
-        <v>0.166666666666667</v>
+        <v>0.150943396226415</v>
       </c>
       <c r="AA68" s="0" t="n">
         <f aca="false">C68+I68+O68+U68</f>
@@ -17496,11 +17503,11 @@
       </c>
       <c r="AC68" s="0" t="n">
         <f aca="false">E68+K68+Q68+W68</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AD68" s="4" t="n">
         <f aca="false">AB68/(AB68+AC68)</f>
-        <v>0.735849056603773</v>
+        <v>0.672413793103448</v>
       </c>
       <c r="AE68" s="4" t="n">
         <f aca="false">AB68/AA68</f>
@@ -17508,7 +17515,7 @@
       </c>
       <c r="AF68" s="4" t="n">
         <f aca="false">(2*AD68*AE68)/(AD68+AE68)</f>
-        <v>0.565217391304348</v>
+        <v>0.545454545454545</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17576,16 +17583,16 @@
         <v>4</v>
       </c>
       <c r="W69" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X69" s="4" t="n">
-        <v>0.5</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="Y69" s="4" t="n">
         <v>0.0851063829787234</v>
       </c>
       <c r="Z69" s="4" t="n">
-        <v>0.145454545454545</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="AA69" s="0" t="n">
         <f aca="false">C69+I69+O69+U69</f>
@@ -17597,11 +17604,11 @@
       </c>
       <c r="AC69" s="0" t="n">
         <f aca="false">E69+K69+Q69+W69</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD69" s="4" t="n">
         <f aca="false">AB69/(AB69+AC69)</f>
-        <v>0.724358974358974</v>
+        <v>0.719745222929936</v>
       </c>
       <c r="AE69" s="4" t="n">
         <f aca="false">AB69/AA69</f>
@@ -17609,7 +17616,7 @@
       </c>
       <c r="AF69" s="4" t="n">
         <f aca="false">(2*AD69*AE69)/(AD69+AE69)</f>
-        <v>0.682779456193354</v>
+        <v>0.680722891566265</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17879,7 +17886,7 @@
         <v>0</v>
       </c>
       <c r="W72" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X72" s="4" t="n">
         <v>0</v>
@@ -17900,7 +17907,7 @@
       </c>
       <c r="AC72" s="0" t="n">
         <f aca="false">E72+K72+Q72+W72</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD72" s="4" t="n">
         <f aca="false">AB72/(AB72+AC72)</f>
@@ -18182,7 +18189,7 @@
         <v>0</v>
       </c>
       <c r="W75" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X75" s="4" t="n">
         <v>0</v>
@@ -18203,7 +18210,7 @@
       </c>
       <c r="AC75" s="0" t="n">
         <f aca="false">E75+K75+Q75+W75</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD75" s="4" t="n">
         <f aca="false">AB75/(AB75+AC75)</f>
@@ -18297,23 +18304,23 @@
       </c>
       <c r="V76" s="7" t="n">
         <f aca="false">SUM(V62:V75)</f>
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="W76" s="7" t="n">
         <f aca="false">SUM(W62:W75)</f>
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="X76" s="6" t="n">
         <f aca="false">V76/(V76+W76)</f>
-        <v>0.515463917525773</v>
+        <v>0.494845360824742</v>
       </c>
       <c r="Y76" s="6" t="n">
         <f aca="false">V76/U76</f>
-        <v>0.515463917525773</v>
+        <v>0.494845360824742</v>
       </c>
       <c r="Z76" s="6" t="n">
         <f aca="false">(2*X76*Y76)/(X76+Y76)</f>
-        <v>0.515463917525773</v>
+        <v>0.494845360824742</v>
       </c>
       <c r="AA76" s="5" t="n">
         <f aca="false">C76+I76+O76+U76</f>
@@ -18321,23 +18328,23 @@
       </c>
       <c r="AB76" s="5" t="n">
         <f aca="false">D76+J76+P76+V76</f>
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="AC76" s="5" t="n">
         <f aca="false">E76+K76+Q76+W76</f>
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="AD76" s="6" t="n">
         <f aca="false">AB76/(AB76+AC76)</f>
-        <v>0.600217864923747</v>
+        <v>0.587145969498911</v>
       </c>
       <c r="AE76" s="6" t="n">
         <f aca="false">AB76/AA76</f>
-        <v>0.600217864923747</v>
+        <v>0.587145969498911</v>
       </c>
       <c r="AF76" s="6" t="n">
         <f aca="false">(2*AD76*AE76)/(AD76+AE76)</f>
-        <v>0.600217864923747</v>
+        <v>0.587145969498911</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18390,7 +18397,7 @@
         <v>0</v>
       </c>
       <c r="Q77" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R77" s="4" t="n">
         <v>0</v>
@@ -18405,19 +18412,19 @@
         <v>210</v>
       </c>
       <c r="V77" s="0" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="W77" s="0" t="n">
         <v>145</v>
       </c>
       <c r="X77" s="4" t="n">
-        <v>0.519867549668874</v>
+        <v>0.523026315789474</v>
       </c>
       <c r="Y77" s="4" t="n">
-        <v>0.747619047619048</v>
+        <v>0.757142857142857</v>
       </c>
       <c r="Z77" s="4" t="n">
-        <v>0.61328125</v>
+        <v>0.618677042801556</v>
       </c>
       <c r="AA77" s="0" t="n">
         <f aca="false">C77+I77+O77+U77</f>
@@ -18425,23 +18432,23 @@
       </c>
       <c r="AB77" s="0" t="n">
         <f aca="false">D77+J77+P77+V77</f>
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AC77" s="0" t="n">
         <f aca="false">E77+K77+Q77+W77</f>
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AD77" s="4" t="n">
         <f aca="false">AB77/(AB77+AC77)</f>
-        <v>0.594132029339853</v>
+        <v>0.597560975609756</v>
       </c>
       <c r="AE77" s="4" t="n">
         <f aca="false">AB77/AA77</f>
-        <v>0.781350482315113</v>
+        <v>0.787781350482315</v>
       </c>
       <c r="AF77" s="4" t="n">
         <f aca="false">(2*AD77*AE77)/(AD77+AE77)</f>
-        <v>0.675</v>
+        <v>0.679611650485437</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18491,7 +18498,7 @@
         <v>0</v>
       </c>
       <c r="Q78" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R78" s="4" t="n">
         <v>0</v>
@@ -18506,19 +18513,19 @@
         <v>183</v>
       </c>
       <c r="V78" s="0" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W78" s="0" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X78" s="4" t="n">
-        <v>0.544041450777202</v>
+        <v>0.549222797927461</v>
       </c>
       <c r="Y78" s="4" t="n">
-        <v>0.573770491803279</v>
+        <v>0.579234972677596</v>
       </c>
       <c r="Z78" s="4" t="n">
-        <v>0.558510638297872</v>
+        <v>0.563829787234043</v>
       </c>
       <c r="AA78" s="0" t="n">
         <f aca="false">C78+I78+O78+U78</f>
@@ -18526,23 +18533,23 @@
       </c>
       <c r="AB78" s="0" t="n">
         <f aca="false">D78+J78+P78+V78</f>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC78" s="0" t="n">
         <f aca="false">E78+K78+Q78+W78</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD78" s="4" t="n">
         <f aca="false">AB78/(AB78+AC78)</f>
-        <v>0.568075117370892</v>
+        <v>0.567441860465116</v>
       </c>
       <c r="AE78" s="4" t="n">
         <f aca="false">AB78/AA78</f>
-        <v>0.562790697674419</v>
+        <v>0.567441860465116</v>
       </c>
       <c r="AF78" s="4" t="n">
         <f aca="false">(2*AD78*AE78)/(AD78+AE78)</f>
-        <v>0.565420560747664</v>
+        <v>0.567441860465116</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18895,34 +18902,34 @@
         <v>1</v>
       </c>
       <c r="Q82" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R82" s="4" t="n">
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="S82" s="4" t="n">
         <v>0.166666666666667</v>
       </c>
       <c r="T82" s="4" t="n">
-        <v>0.222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="U82" s="0" t="n">
         <v>81</v>
       </c>
       <c r="V82" s="0" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W82" s="0" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="X82" s="4" t="n">
-        <v>0.388888888888889</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="Y82" s="4" t="n">
-        <v>0.345679012345679</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z82" s="4" t="n">
-        <v>0.366013071895425</v>
+        <v>0.36</v>
       </c>
       <c r="AA82" s="0" t="n">
         <f aca="false">C82+I82+O82+U82</f>
@@ -18930,23 +18937,23 @@
       </c>
       <c r="AB82" s="0" t="n">
         <f aca="false">D82+J82+P82+V82</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC82" s="0" t="n">
         <f aca="false">E82+K82+Q82+W82</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD82" s="4" t="n">
         <f aca="false">AB82/(AB82+AC82)</f>
-        <v>0.417721518987342</v>
+        <v>0.415584415584416</v>
       </c>
       <c r="AE82" s="4" t="n">
         <f aca="false">AB82/AA82</f>
-        <v>0.362637362637363</v>
+        <v>0.351648351648352</v>
       </c>
       <c r="AF82" s="4" t="n">
         <f aca="false">(2*AD82*AE82)/(AD82+AE82)</f>
-        <v>0.388235294117647</v>
+        <v>0.380952380952381</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19097,16 +19104,16 @@
         <v>108</v>
       </c>
       <c r="Q84" s="0" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R84" s="4" t="n">
-        <v>0.765957446808511</v>
+        <v>0.771428571428571</v>
       </c>
       <c r="S84" s="4" t="n">
         <v>0.964285714285714</v>
       </c>
       <c r="T84" s="4" t="n">
-        <v>0.853754940711463</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="U84" s="0" t="n">
         <v>47</v>
@@ -19115,16 +19122,16 @@
         <v>3</v>
       </c>
       <c r="W84" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X84" s="4" t="n">
-        <v>0.5</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="Y84" s="4" t="n">
         <v>0.0638297872340425</v>
       </c>
       <c r="Z84" s="4" t="n">
-        <v>0.113207547169811</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="AA84" s="0" t="n">
         <f aca="false">C84+I84+O84+U84</f>
@@ -19602,7 +19609,7 @@
         <v>0</v>
       </c>
       <c r="Q89" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R89" s="4" t="n">
         <v>0</v>
@@ -19641,7 +19648,7 @@
       </c>
       <c r="AC89" s="0" t="n">
         <f aca="false">E89+K89+Q89+W89</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD89" s="4" t="n">
         <f aca="false">AB89/(AB89+AC89)</f>
@@ -19836,23 +19843,23 @@
       </c>
       <c r="V91" s="7" t="n">
         <f aca="false">SUM(V77:V90)</f>
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="W91" s="7" t="n">
         <f aca="false">SUM(W77:W90)</f>
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="X91" s="6" t="n">
         <f aca="false">V91/(V91+W91)</f>
-        <v>0.506872852233677</v>
+        <v>0.510309278350515</v>
       </c>
       <c r="Y91" s="6" t="n">
         <f aca="false">V91/U91</f>
-        <v>0.506872852233677</v>
+        <v>0.510309278350515</v>
       </c>
       <c r="Z91" s="6" t="n">
         <f aca="false">(2*X91*Y91)/(X91+Y91)</f>
-        <v>0.506872852233677</v>
+        <v>0.510309278350515</v>
       </c>
       <c r="AA91" s="5" t="n">
         <f aca="false">C91+I91+O91+U91</f>
@@ -19860,23 +19867,23 @@
       </c>
       <c r="AB91" s="5" t="n">
         <f aca="false">D91+J91+P91+V91</f>
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AC91" s="5" t="n">
         <f aca="false">E91+K91+Q91+W91</f>
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AD91" s="6" t="n">
         <f aca="false">AB91/(AB91+AC91)</f>
-        <v>0.599128540305011</v>
+        <v>0.601307189542484</v>
       </c>
       <c r="AE91" s="6" t="n">
         <f aca="false">AB91/AA91</f>
-        <v>0.599128540305011</v>
+        <v>0.601307189542484</v>
       </c>
       <c r="AF91" s="6" t="n">
         <f aca="false">(2*AD91*AE91)/(AD91+AE91)</f>
-        <v>0.599128540305011</v>
+        <v>0.601307189542484</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19944,19 +19951,19 @@
         <v>210</v>
       </c>
       <c r="V92" s="0" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="W92" s="0" t="n">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="X92" s="4" t="n">
-        <v>0.541095890410959</v>
+        <v>0.513157894736842</v>
       </c>
       <c r="Y92" s="4" t="n">
-        <v>0.752380952380952</v>
+        <v>0.742857142857143</v>
       </c>
       <c r="Z92" s="4" t="n">
-        <v>0.629482071713147</v>
+        <v>0.607003891050584</v>
       </c>
       <c r="AA92" s="0" t="n">
         <f aca="false">C92+I92+O92+U92</f>
@@ -19964,23 +19971,23 @@
       </c>
       <c r="AB92" s="0" t="n">
         <f aca="false">D92+J92+P92+V92</f>
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AC92" s="0" t="n">
         <f aca="false">E92+K92+Q92+W92</f>
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AD92" s="4" t="n">
         <f aca="false">AB92/(AB92+AC92)</f>
-        <v>0.611528822055138</v>
+        <v>0.588807785888078</v>
       </c>
       <c r="AE92" s="4" t="n">
         <f aca="false">AB92/AA92</f>
-        <v>0.784565916398714</v>
+        <v>0.778135048231511</v>
       </c>
       <c r="AF92" s="4" t="n">
         <f aca="false">(2*AD92*AE92)/(AD92+AE92)</f>
-        <v>0.687323943661972</v>
+        <v>0.670360110803324</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20048,19 +20055,19 @@
         <v>183</v>
       </c>
       <c r="V93" s="0" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="W93" s="0" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="X93" s="4" t="n">
-        <v>0.543010752688172</v>
+        <v>0.541899441340782</v>
       </c>
       <c r="Y93" s="4" t="n">
-        <v>0.551912568306011</v>
+        <v>0.530054644808743</v>
       </c>
       <c r="Z93" s="4" t="n">
-        <v>0.547425474254742</v>
+        <v>0.535911602209945</v>
       </c>
       <c r="AA93" s="0" t="n">
         <f aca="false">C93+I93+O93+U93</f>
@@ -20068,23 +20075,23 @@
       </c>
       <c r="AB93" s="0" t="n">
         <f aca="false">D93+J93+P93+V93</f>
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AC93" s="0" t="n">
         <f aca="false">E93+K93+Q93+W93</f>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AD93" s="4" t="n">
         <f aca="false">AB93/(AB93+AC93)</f>
-        <v>0.5625</v>
+        <v>0.562189054726368</v>
       </c>
       <c r="AE93" s="4" t="n">
         <f aca="false">AB93/AA93</f>
-        <v>0.544186046511628</v>
+        <v>0.525581395348837</v>
       </c>
       <c r="AF93" s="4" t="n">
         <f aca="false">(2*AD93*AE93)/(AD93+AE93)</f>
-        <v>0.553191489361702</v>
+        <v>0.543269230769231</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20452,19 +20459,19 @@
         <v>81</v>
       </c>
       <c r="V97" s="0" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="W97" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="X97" s="4" t="n">
-        <v>0.397590361445783</v>
+        <v>0.402985074626866</v>
       </c>
       <c r="Y97" s="4" t="n">
-        <v>0.407407407407407</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z97" s="4" t="n">
-        <v>0.402439024390244</v>
+        <v>0.364864864864865</v>
       </c>
       <c r="AA97" s="0" t="n">
         <f aca="false">C97+I97+O97+U97</f>
@@ -20472,23 +20479,23 @@
       </c>
       <c r="AB97" s="0" t="n">
         <f aca="false">D97+J97+P97+V97</f>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AC97" s="0" t="n">
         <f aca="false">E97+K97+Q97+W97</f>
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AD97" s="4" t="n">
         <f aca="false">AB97/(AB97+AC97)</f>
-        <v>0.417582417582418</v>
+        <v>0.426666666666667</v>
       </c>
       <c r="AE97" s="4" t="n">
         <f aca="false">AB97/AA97</f>
-        <v>0.417582417582418</v>
+        <v>0.351648351648352</v>
       </c>
       <c r="AF97" s="4" t="n">
         <f aca="false">(2*AD97*AE97)/(AD97+AE97)</f>
-        <v>0.417582417582418</v>
+        <v>0.385542168674699</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20556,16 +20563,16 @@
         <v>4</v>
       </c>
       <c r="W98" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="X98" s="4" t="n">
-        <v>0.5</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="Y98" s="4" t="n">
         <v>0.1</v>
       </c>
       <c r="Z98" s="4" t="n">
-        <v>0.166666666666667</v>
+        <v>0.150943396226415</v>
       </c>
       <c r="AA98" s="0" t="n">
         <f aca="false">C98+I98+O98+U98</f>
@@ -20577,11 +20584,11 @@
       </c>
       <c r="AC98" s="0" t="n">
         <f aca="false">E98+K98+Q98+W98</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AD98" s="4" t="n">
         <f aca="false">AB98/(AB98+AC98)</f>
-        <v>0.735849056603773</v>
+        <v>0.672413793103448</v>
       </c>
       <c r="AE98" s="4" t="n">
         <f aca="false">AB98/AA98</f>
@@ -20589,7 +20596,7 @@
       </c>
       <c r="AF98" s="4" t="n">
         <f aca="false">(2*AD98*AE98)/(AD98+AE98)</f>
-        <v>0.565217391304348</v>
+        <v>0.545454545454545</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20657,16 +20664,16 @@
         <v>4</v>
       </c>
       <c r="W99" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X99" s="4" t="n">
-        <v>0.5</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="Y99" s="4" t="n">
         <v>0.0851063829787234</v>
       </c>
       <c r="Z99" s="4" t="n">
-        <v>0.145454545454545</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="AA99" s="0" t="n">
         <f aca="false">C99+I99+O99+U99</f>
@@ -20678,11 +20685,11 @@
       </c>
       <c r="AC99" s="0" t="n">
         <f aca="false">E99+K99+Q99+W99</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD99" s="4" t="n">
         <f aca="false">AB99/(AB99+AC99)</f>
-        <v>0.727848101265823</v>
+        <v>0.723270440251572</v>
       </c>
       <c r="AE99" s="4" t="n">
         <f aca="false">AB99/AA99</f>
@@ -20690,7 +20697,7 @@
       </c>
       <c r="AF99" s="4" t="n">
         <f aca="false">(2*AD99*AE99)/(AD99+AE99)</f>
-        <v>0.690690690690691</v>
+        <v>0.688622754491018</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20960,7 +20967,7 @@
         <v>0</v>
       </c>
       <c r="W102" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X102" s="4" t="n">
         <v>0</v>
@@ -20981,7 +20988,7 @@
       </c>
       <c r="AC102" s="0" t="n">
         <f aca="false">E102+K102+Q102+W102</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD102" s="4" t="n">
         <f aca="false">AB102/(AB102+AC102)</f>
@@ -21263,7 +21270,7 @@
         <v>0</v>
       </c>
       <c r="W105" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X105" s="4" t="n">
         <v>0</v>
@@ -21284,7 +21291,7 @@
       </c>
       <c r="AC105" s="0" t="n">
         <f aca="false">E105+K105+Q105+W105</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD105" s="4" t="n">
         <f aca="false">AB105/(AB105+AC105)</f>
@@ -21380,23 +21387,23 @@
       </c>
       <c r="V106" s="7" t="n">
         <f aca="false">SUM(V92:V105)</f>
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="W106" s="7" t="n">
         <f aca="false">SUM(W92:W105)</f>
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="X106" s="6" t="n">
         <f aca="false">V106/(V106+W106)</f>
-        <v>0.515463917525773</v>
+        <v>0.494845360824742</v>
       </c>
       <c r="Y106" s="6" t="n">
         <f aca="false">V106/U106</f>
-        <v>0.515463917525773</v>
+        <v>0.494845360824742</v>
       </c>
       <c r="Z106" s="6" t="n">
         <f aca="false">(2*X106*Y106)/(X106+Y106)</f>
-        <v>0.515463917525773</v>
+        <v>0.494845360824742</v>
       </c>
       <c r="AA106" s="5" t="n">
         <f aca="false">C106+I106+O106+U106</f>
@@ -21404,23 +21411,23 @@
       </c>
       <c r="AB106" s="5" t="n">
         <f aca="false">D106+J106+P106+V106</f>
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="AC106" s="5" t="n">
         <f aca="false">E106+K106+Q106+W106</f>
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="AD106" s="6" t="n">
         <f aca="false">AB106/(AB106+AC106)</f>
-        <v>0.60239651416122</v>
+        <v>0.589324618736383</v>
       </c>
       <c r="AE106" s="6" t="n">
         <f aca="false">AB106/AA106</f>
-        <v>0.60239651416122</v>
+        <v>0.589324618736383</v>
       </c>
       <c r="AF106" s="6" t="n">
         <f aca="false">(2*AD106*AE106)/(AD106+AE106)</f>
-        <v>0.60239651416122</v>
+        <v>0.589324618736383</v>
       </c>
     </row>
   </sheetData>
@@ -21448,8 +21455,8 @@
   </sheetPr>
   <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH30" activeCellId="0" sqref="AH30:AN35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W50" activeCellId="1" sqref="AG62:AN78 W50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -21472,7 +21479,13 @@
     <col collapsed="false" hidden="false" max="26" min="24" style="4" width="7.07142857142857"/>
     <col collapsed="false" hidden="false" max="29" min="27" style="0" width="5.52551020408163"/>
     <col collapsed="false" hidden="false" max="32" min="30" style="0" width="7.07142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="35" min="34" style="0" width="3.55612244897959"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="2.56632653061224"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="7.46938775510204"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="6.05612244897959"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="7.75510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21662,7 +21675,7 @@
         <v>0.9</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>0</v>
@@ -21699,7 +21712,7 @@
       </c>
       <c r="AA3" s="0" t="n">
         <f aca="false">C3+I3+O3+U3</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AB3" s="0" t="n">
         <f aca="false">D3+J3+P3+V3</f>
@@ -21715,11 +21728,11 @@
       </c>
       <c r="AE3" s="4" t="n">
         <f aca="false">AB3/AA3</f>
-        <v>0.703703703703704</v>
+        <v>0.76</v>
       </c>
       <c r="AF3" s="4" t="n">
         <f aca="false">(2*AD3*AE3)/(AD3+AE3)</f>
-        <v>0.808510638297872</v>
+        <v>0.844444444444444</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21965,22 +21978,22 @@
         <v>0</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.638888888888889</v>
+        <v>0.675675675675676</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.958333333333333</v>
+        <v>0.925925925925926</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>0.766666666666667</v>
+        <v>0.78125</v>
       </c>
       <c r="U6" s="0" t="n">
         <v>3</v>
@@ -22002,27 +22015,27 @@
       </c>
       <c r="AA6" s="0" t="n">
         <f aca="false">C6+I6+O6+U6</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB6" s="0" t="n">
         <f aca="false">D6+J6+P6+V6</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AC6" s="0" t="n">
         <f aca="false">E6+K6+Q6+W6</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD6" s="4" t="n">
         <f aca="false">AB6/(AB6+AC6)</f>
-        <v>0.666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="AE6" s="4" t="n">
         <f aca="false">AB6/AA6</f>
-        <v>0.866666666666667</v>
+        <v>0.848484848484848</v>
       </c>
       <c r="AF6" s="4" t="n">
         <f aca="false">(2*AD6*AE6)/(AD6+AE6)</f>
-        <v>0.753623188405797</v>
+        <v>0.767123287671233</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22066,22 +22079,22 @@
         <v>0.592592592592593</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q7" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="R7" s="4" t="n">
-        <v>0.6</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>0.461538461538462</v>
+        <v>0.470588235294118</v>
       </c>
       <c r="U7" s="0" t="n">
         <v>7</v>
@@ -22103,27 +22116,27 @@
       </c>
       <c r="AA7" s="0" t="n">
         <f aca="false">C7+I7+O7+U7</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB7" s="0" t="n">
         <f aca="false">D7+J7+P7+V7</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC7" s="0" t="n">
         <f aca="false">E7+K7+Q7+W7</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD7" s="4" t="n">
         <f aca="false">AB7/(AB7+AC7)</f>
-        <v>0.578947368421053</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="AE7" s="4" t="n">
         <f aca="false">AB7/AA7</f>
-        <v>0.305555555555556</v>
+        <v>0.31578947368421</v>
       </c>
       <c r="AF7" s="4" t="n">
         <f aca="false">(2*AD7*AE7)/(AD7+AE7)</f>
-        <v>0.4</v>
+        <v>0.406779661016949</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22178,7 +22191,7 @@
       </c>
       <c r="P8" s="7" t="n">
         <f aca="false">SUM(P2:P7)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="n">
         <f aca="false">SUM(Q2:Q7)</f>
@@ -22186,15 +22199,15 @@
       </c>
       <c r="R8" s="6" t="n">
         <f aca="false">P8/(P8+Q8)</f>
-        <v>0.659090909090909</v>
+        <v>0.680851063829787</v>
       </c>
       <c r="S8" s="6" t="n">
         <f aca="false">P8/O8</f>
-        <v>0.0685579196217494</v>
+        <v>0.0756501182033097</v>
       </c>
       <c r="T8" s="6" t="n">
         <f aca="false">(2*R8*S8)/(R8+S8)</f>
-        <v>0.124197002141328</v>
+        <v>0.136170212765957</v>
       </c>
       <c r="U8" s="7" t="n">
         <v>1427</v>
@@ -22225,7 +22238,7 @@
       </c>
       <c r="AB8" s="5" t="n">
         <f aca="false">D8+J8+P8+V8</f>
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AC8" s="5" t="n">
         <f aca="false">E8+K8+Q8+W8</f>
@@ -22233,15 +22246,15 @@
       </c>
       <c r="AD8" s="6" t="n">
         <f aca="false">AB8/(AB8+AC8)</f>
-        <v>0.724358974358974</v>
+        <v>0.729559748427673</v>
       </c>
       <c r="AE8" s="6" t="n">
         <f aca="false">AB8/AA8</f>
-        <v>0.0511080958842153</v>
+        <v>0.052464947987336</v>
       </c>
       <c r="AF8" s="6" t="n">
         <f aca="false">(2*AD8*AE8)/(AD8+AE8)</f>
-        <v>0.0954795099281792</v>
+        <v>0.0978902953586498</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22258,19 +22271,19 @@
         <v>75</v>
       </c>
       <c r="J9" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="K9" s="0" t="n">
-        <v>62</v>
-      </c>
       <c r="L9" s="4" t="n">
-        <v>0.504</v>
+        <v>0.496</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>0.84</v>
+        <v>0.826666666666667</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="O9" s="0" t="n">
         <v>44</v>
@@ -22279,34 +22292,34 @@
         <v>8</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.285714285714286</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="S9" s="4" t="n">
         <v>0.181818181818182</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>0.222222222222222</v>
+        <v>0.205128205128205</v>
       </c>
       <c r="U9" s="0" t="n">
         <v>384</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>0.5</v>
+        <v>0.536585365853659</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.213541666666667</v>
+        <v>0.229166666666667</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>0.299270072992701</v>
+        <v>0.321167883211679</v>
       </c>
       <c r="AA9" s="0" t="n">
         <f aca="false">C9+I9+O9+U9</f>
@@ -22314,23 +22327,23 @@
       </c>
       <c r="AB9" s="0" t="n">
         <f aca="false">D9+J9+P9+V9</f>
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AC9" s="0" t="n">
         <f aca="false">E9+K9+Q9+W9</f>
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AD9" s="4" t="n">
         <f aca="false">AB9/(AB9+AC9)</f>
-        <v>0.482649842271293</v>
+        <v>0.489164086687306</v>
       </c>
       <c r="AE9" s="4" t="n">
         <f aca="false">AB9/AA9</f>
-        <v>0.304174950298211</v>
+        <v>0.314115308151093</v>
       </c>
       <c r="AF9" s="4" t="n">
         <f aca="false">(2*AD9*AE9)/(AD9+AE9)</f>
-        <v>0.373170731707317</v>
+        <v>0.382566585956416</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22344,55 +22357,55 @@
         <v>70</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>5</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>0.8</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>0.285714285714286</v>
+        <v>0.271428571428571</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>0.421052631578947</v>
+        <v>0.404255319148936</v>
       </c>
       <c r="O10" s="0" t="n">
         <v>129</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="0" t="n">
         <v>57</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.477064220183486</v>
+        <v>0.467289719626168</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.403100775193798</v>
+        <v>0.387596899224806</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>0.436974789915966</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="U10" s="0" t="n">
         <v>274</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>0.539823008849557</v>
+        <v>0.55045871559633</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.222627737226277</v>
+        <v>0.218978102189781</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>0.315245478036176</v>
+        <v>0.31331592689295</v>
       </c>
       <c r="AA10" s="0" t="n">
         <f aca="false">C10+I10+O10+U10</f>
@@ -22400,23 +22413,23 @@
       </c>
       <c r="AB10" s="0" t="n">
         <f aca="false">D10+J10+P10+V10</f>
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AC10" s="0" t="n">
         <f aca="false">E10+K10+Q10+W10</f>
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AD10" s="4" t="n">
         <f aca="false">AB10/(AB10+AC10)</f>
-        <v>0.538461538461538</v>
+        <v>0.5375</v>
       </c>
       <c r="AE10" s="4" t="n">
         <f aca="false">AB10/AA10</f>
-        <v>0.281183932346723</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="AF10" s="4" t="n">
         <f aca="false">(2*AD10*AE10)/(AD10+AE10)</f>
-        <v>0.369444444444444</v>
+        <v>0.361851332398317</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22469,7 +22482,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" s="4" t="n">
         <v>0</v>
@@ -22490,11 +22503,11 @@
       </c>
       <c r="AC11" s="0" t="n">
         <f aca="false">E11+K11+Q11+W11</f>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="4" t="e">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="4" t="n">
         <f aca="false">AB11/(AB11+AC11)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="4" t="n">
         <f aca="false">AB11/AA11</f>
@@ -22552,19 +22565,19 @@
         <v>56</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X12" s="4" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="Y12" s="4" t="n">
-        <v>0</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="Z12" s="4" t="n">
-        <v>0</v>
+        <v>0.03125</v>
       </c>
       <c r="AA12" s="0" t="n">
         <f aca="false">C12+I12+O12+U12</f>
@@ -22572,23 +22585,23 @@
       </c>
       <c r="AB12" s="0" t="n">
         <f aca="false">D12+J12+P12+V12</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC12" s="0" t="n">
         <f aca="false">E12+K12+Q12+W12</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD12" s="4" t="n">
         <f aca="false">AB12/(AB12+AC12)</f>
-        <v>0.25</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="AE12" s="4" t="n">
         <f aca="false">AB12/AA12</f>
-        <v>0.0434782608695652</v>
+        <v>0.0543478260869565</v>
       </c>
       <c r="AF12" s="4" t="n">
         <f aca="false">(2*AD12*AE12)/(AD12+AE12)</f>
-        <v>0.0740740740740741</v>
+        <v>0.0909090909090909</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22602,55 +22615,55 @@
         <v>56</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>0.731707317073171</v>
+        <v>0.743589743589744</v>
       </c>
       <c r="M13" s="4" t="n">
-        <v>0.535714285714286</v>
+        <v>0.517857142857143</v>
       </c>
       <c r="N13" s="4" t="n">
-        <v>0.618556701030928</v>
+        <v>0.610526315789474</v>
       </c>
       <c r="O13" s="0" t="n">
         <v>68</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="0" t="n">
         <v>29</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>0.508474576271186</v>
+        <v>0.516666666666667</v>
       </c>
       <c r="S13" s="4" t="n">
-        <v>0.441176470588235</v>
+        <v>0.455882352941176</v>
       </c>
       <c r="T13" s="4" t="n">
-        <v>0.47244094488189</v>
+        <v>0.484375</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>53</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X13" s="4" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Y13" s="4" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.0377358490566038</v>
       </c>
       <c r="Z13" s="4" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.0597014925373134</v>
       </c>
       <c r="AA13" s="0" t="n">
         <f aca="false">C13+I13+O13+U13</f>
@@ -22658,23 +22671,23 @@
       </c>
       <c r="AB13" s="0" t="n">
         <f aca="false">D13+J13+P13+V13</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC13" s="0" t="n">
         <f aca="false">E13+K13+Q13+W13</f>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AD13" s="4" t="n">
         <f aca="false">AB13/(AB13+AC13)</f>
-        <v>0.530434782608696</v>
+        <v>0.548672566371681</v>
       </c>
       <c r="AE13" s="4" t="n">
         <f aca="false">AB13/AA13</f>
-        <v>0.344632768361582</v>
+        <v>0.350282485875706</v>
       </c>
       <c r="AF13" s="4" t="n">
         <f aca="false">(2*AD13*AE13)/(AD13+AE13)</f>
-        <v>0.417808219178082</v>
+        <v>0.427586206896552</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22688,55 +22701,55 @@
         <v>86</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>0.392857142857143</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="M14" s="4" t="n">
-        <v>0.511627906976744</v>
+        <v>0.523255813953488</v>
       </c>
       <c r="N14" s="4" t="n">
-        <v>0.444444444444444</v>
+        <v>0.447761194029851</v>
       </c>
       <c r="O14" s="0" t="n">
         <v>164</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>0.431111111111111</v>
+        <v>0.436363636363636</v>
       </c>
       <c r="S14" s="4" t="n">
-        <v>0.591463414634146</v>
+        <v>0.585365853658537</v>
       </c>
       <c r="T14" s="4" t="n">
-        <v>0.498714652956298</v>
+        <v>0.5</v>
       </c>
       <c r="U14" s="0" t="n">
         <v>638</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="X14" s="4" t="n">
-        <v>0.475642161204606</v>
+        <v>0.484526967285588</v>
       </c>
       <c r="Y14" s="4" t="n">
-        <v>0.841692789968652</v>
+        <v>0.858934169278997</v>
       </c>
       <c r="Z14" s="4" t="n">
-        <v>0.607809847198642</v>
+        <v>0.619559072922555</v>
       </c>
       <c r="AA14" s="0" t="n">
         <f aca="false">C14+I14+O14+U14</f>
@@ -22744,23 +22757,23 @@
       </c>
       <c r="AB14" s="0" t="n">
         <f aca="false">D14+J14+P14+V14</f>
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="AC14" s="0" t="n">
         <f aca="false">E14+K14+Q14+W14</f>
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="AD14" s="4" t="n">
         <f aca="false">AB14/(AB14+AC14)</f>
-        <v>0.462482946793997</v>
+        <v>0.469986357435198</v>
       </c>
       <c r="AE14" s="4" t="n">
         <f aca="false">AB14/AA14</f>
-        <v>0.763513513513513</v>
+        <v>0.775900900900901</v>
       </c>
       <c r="AF14" s="4" t="n">
         <f aca="false">(2*AD14*AE14)/(AD14+AE14)</f>
-        <v>0.576040781648258</v>
+        <v>0.585386576040782</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22773,23 +22786,23 @@
       </c>
       <c r="J15" s="5" t="n">
         <f aca="false">SUM(J9:J14)</f>
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K15" s="5" t="n">
         <f aca="false">SUM(K9:K14)</f>
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L15" s="6" t="n">
         <f aca="false">J15/(J15+K15)</f>
-        <v>0.517684887459807</v>
+        <v>0.511254019292605</v>
       </c>
       <c r="M15" s="6" t="n">
         <f aca="false">J15/I15</f>
-        <v>0.517684887459807</v>
+        <v>0.511254019292605</v>
       </c>
       <c r="N15" s="6" t="n">
         <f aca="false">(2*L15*M15)/(L15+M15)</f>
-        <v>0.517684887459807</v>
+        <v>0.511254019292605</v>
       </c>
       <c r="O15" s="7" t="n">
         <f aca="false">SUM(O9:O14)</f>
@@ -22797,23 +22810,23 @@
       </c>
       <c r="P15" s="7" t="n">
         <f aca="false">SUM(P9:P14)</f>
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q15" s="7" t="n">
         <f aca="false">SUM(Q9:Q14)</f>
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="R15" s="6" t="n">
         <f aca="false">P15/(P15+Q15)</f>
-        <v>0.442080378250591</v>
+        <v>0.437352245862884</v>
       </c>
       <c r="S15" s="6" t="n">
         <f aca="false">P15/O15</f>
-        <v>0.442080378250591</v>
+        <v>0.437352245862884</v>
       </c>
       <c r="T15" s="6" t="n">
         <f aca="false">(2*R15*S15)/(R15+S15)</f>
-        <v>0.442080378250591</v>
+        <v>0.437352245862884</v>
       </c>
       <c r="U15" s="7" t="n">
         <f aca="false">SUM(U9:U14)</f>
@@ -22821,23 +22834,23 @@
       </c>
       <c r="V15" s="7" t="n">
         <f aca="false">SUM(V9:V14)</f>
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="W15" s="7" t="n">
         <f aca="false">SUM(W9:W14)</f>
-        <v>746</v>
+        <v>728</v>
       </c>
       <c r="X15" s="6" t="n">
         <f aca="false">V15/(V15+W15)</f>
-        <v>0.477224947442186</v>
+        <v>0.489838822704976</v>
       </c>
       <c r="Y15" s="6" t="n">
         <f aca="false">V15/U15</f>
-        <v>0.477224947442186</v>
+        <v>0.489838822704976</v>
       </c>
       <c r="Z15" s="6" t="n">
         <f aca="false">(2*X15*Y15)/(X15+Y15)</f>
-        <v>0.477224947442186</v>
+        <v>0.489838822704976</v>
       </c>
       <c r="AA15" s="5" t="n">
         <f aca="false">C15+I15+O15+U15</f>
@@ -22845,23 +22858,23 @@
       </c>
       <c r="AB15" s="5" t="n">
         <f aca="false">D15+J15+P15+V15</f>
-        <v>1029</v>
+        <v>1043</v>
       </c>
       <c r="AC15" s="5" t="n">
         <f aca="false">E15+K15+Q15+W15</f>
-        <v>1132</v>
+        <v>1118</v>
       </c>
       <c r="AD15" s="6" t="n">
         <f aca="false">AB15/(AB15+AC15)</f>
-        <v>0.476168440536789</v>
+        <v>0.482646922720963</v>
       </c>
       <c r="AE15" s="6" t="n">
         <f aca="false">AB15/AA15</f>
-        <v>0.476168440536789</v>
+        <v>0.482646922720963</v>
       </c>
       <c r="AF15" s="6" t="n">
         <f aca="false">(2*AD15*AE15)/(AD15+AE15)</f>
-        <v>0.476168440536789</v>
+        <v>0.482646922720963</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22926,46 +22939,46 @@
         <v>0.8</v>
       </c>
       <c r="U16" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V16" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W16" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X16" s="4" t="n">
-        <v>0.458333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="Y16" s="4" t="n">
         <v>1</v>
       </c>
       <c r="Z16" s="4" t="n">
-        <v>0.628571428571429</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="AA16" s="0" t="n">
         <f aca="false">C16+I16+O16+U16</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB16" s="0" t="n">
         <f aca="false">D16+J16+P16+V16</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC16" s="0" t="n">
         <f aca="false">E16+K16+Q16+W16</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD16" s="4" t="n">
         <f aca="false">AB16/(AB16+AC16)</f>
-        <v>0.711538461538462</v>
+        <v>0.730769230769231</v>
       </c>
       <c r="AE16" s="4" t="n">
         <f aca="false">AB16/AA16</f>
-        <v>0.948717948717949</v>
+        <v>0.95</v>
       </c>
       <c r="AF16" s="4" t="n">
         <f aca="false">(2*AD16*AE16)/(AD16+AE16)</f>
-        <v>0.813186813186813</v>
+        <v>0.826086956521739</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23012,19 +23025,19 @@
         <v>11</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q17" s="0" t="n">
         <v>2</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="S17" s="4" t="n">
-        <v>0.363636363636364</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="T17" s="4" t="n">
-        <v>0.470588235294118</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="U17" s="0" t="n">
         <v>8</v>
@@ -23033,16 +23046,16 @@
         <v>8</v>
       </c>
       <c r="W17" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X17" s="4" t="n">
-        <v>0.8</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="Y17" s="4" t="n">
         <v>1</v>
       </c>
       <c r="Z17" s="4" t="n">
-        <v>0.888888888888889</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="AA17" s="0" t="n">
         <f aca="false">C17+I17+O17+U17</f>
@@ -23050,23 +23063,23 @@
       </c>
       <c r="AB17" s="0" t="n">
         <f aca="false">D17+J17+P17+V17</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC17" s="0" t="n">
         <f aca="false">E17+K17+Q17+W17</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD17" s="4" t="n">
         <f aca="false">AB17/(AB17+AC17)</f>
-        <v>0.818181818181818</v>
+        <v>0.844444444444444</v>
       </c>
       <c r="AE17" s="4" t="n">
         <f aca="false">AB17/AA17</f>
-        <v>0.8</v>
+        <v>0.844444444444444</v>
       </c>
       <c r="AF17" s="4" t="n">
         <f aca="false">(2*AD17*AE17)/(AD17+AE17)</f>
-        <v>0.808988764044944</v>
+        <v>0.844444444444444</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23235,16 +23248,16 @@
         <v>1</v>
       </c>
       <c r="W19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="4" t="n">
         <v>1</v>
       </c>
       <c r="Z19" s="4" t="n">
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AA19" s="0" t="n">
         <f aca="false">C19+I19+O19+U19</f>
@@ -23256,11 +23269,11 @@
       </c>
       <c r="AC19" s="0" t="n">
         <f aca="false">E19+K19+Q19+W19</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD19" s="4" t="n">
         <f aca="false">AB19/(AB19+AC19)</f>
-        <v>0.5</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="AE19" s="4" t="n">
         <f aca="false">AB19/AA19</f>
@@ -23268,7 +23281,7 @@
       </c>
       <c r="AF19" s="4" t="n">
         <f aca="false">(2*AD19*AE19)/(AD19+AE19)</f>
-        <v>0.592592592592593</v>
+        <v>0.615384615384615</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23294,40 +23307,40 @@
         <v>0.666666666666667</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>0.75</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="M20" s="4" t="n">
-        <v>0.818181818181818</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>0.782608695652174</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P20" s="0" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>0.642857142857143</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="S20" s="4" t="n">
-        <v>0.964285714285714</v>
+        <v>0.935483870967742</v>
       </c>
       <c r="T20" s="4" t="n">
-        <v>0.771428571428571</v>
+        <v>0.794520547945205</v>
       </c>
       <c r="U20" s="0" t="n">
         <v>4</v>
@@ -23349,27 +23362,27 @@
       </c>
       <c r="AA20" s="0" t="n">
         <f aca="false">C20+I20+O20+U20</f>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AB20" s="0" t="n">
         <f aca="false">D20+J20+P20+V20</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC20" s="0" t="n">
         <f aca="false">E20+K20+Q20+W20</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AD20" s="4" t="n">
         <f aca="false">AB20/(AB20+AC20)</f>
-        <v>0.655737704918033</v>
+        <v>0.704918032786885</v>
       </c>
       <c r="AE20" s="4" t="n">
         <f aca="false">AB20/AA20</f>
-        <v>0.888888888888889</v>
+        <v>0.877551020408163</v>
       </c>
       <c r="AF20" s="4" t="n">
         <f aca="false">(2*AD20*AE20)/(AD20+AE20)</f>
-        <v>0.754716981132076</v>
+        <v>0.781818181818182</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23395,7 +23408,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>8</v>
@@ -23407,31 +23420,31 @@
         <v>0.571428571428571</v>
       </c>
       <c r="M21" s="4" t="n">
-        <v>0.5</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="N21" s="4" t="n">
-        <v>0.533333333333333</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q21" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="R21" s="4" t="n">
-        <v>0.6</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="S21" s="4" t="n">
-        <v>0.230769230769231</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="T21" s="4" t="n">
-        <v>0.333333333333333</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="U21" s="0" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="V21" s="0" t="n">
         <v>0</v>
@@ -23450,27 +23463,27 @@
       </c>
       <c r="AA21" s="0" t="n">
         <f aca="false">C21+I21+O21+U21</f>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AB21" s="0" t="n">
         <f aca="false">D21+J21+P21+V21</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC21" s="0" t="n">
         <f aca="false">E21+K21+Q21+W21</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD21" s="4" t="n">
         <f aca="false">AB21/(AB21+AC21)</f>
-        <v>0.578947368421053</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="AE21" s="4" t="n">
         <f aca="false">AB21/AA21</f>
-        <v>0.211538461538462</v>
+        <v>0.244897959183673</v>
       </c>
       <c r="AF21" s="4" t="n">
         <f aca="false">(2*AD21*AE21)/(AD21+AE21)</f>
-        <v>0.309859154929577</v>
+        <v>0.342857142857143</v>
       </c>
     </row>
     <row r="22" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23502,69 +23515,69 @@
       </c>
       <c r="J22" s="5" t="n">
         <f aca="false">SUM(J16:J21)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K22" s="5" t="n">
         <f aca="false">SUM(K16:K21)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L22" s="6" t="n">
         <f aca="false">J22/(J22+K22)</f>
-        <v>0.709090909090909</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="M22" s="6" t="n">
         <f aca="false">J22/I22</f>
-        <v>0.12540192926045</v>
+        <v>0.128617363344051</v>
       </c>
       <c r="N22" s="6" t="n">
         <f aca="false">(2*L22*M22)/(L22+M22)</f>
-        <v>0.213114754098361</v>
+        <v>0.218579234972678</v>
       </c>
       <c r="O22" s="7" t="n">
         <v>423</v>
       </c>
       <c r="P22" s="7" t="n">
         <f aca="false">SUM(P16:P21)</f>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="Q22" s="7" t="n">
         <f aca="false">SUM(Q16:Q21)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R22" s="6" t="n">
         <f aca="false">P22/(P22+Q22)</f>
-        <v>0.67741935483871</v>
+        <v>0.712121212121212</v>
       </c>
       <c r="S22" s="6" t="n">
         <f aca="false">P22/O22</f>
-        <v>0.099290780141844</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="T22" s="6" t="n">
         <f aca="false">(2*R22*S22)/(R22+S22)</f>
-        <v>0.17319587628866</v>
+        <v>0.192229038854806</v>
       </c>
       <c r="U22" s="7" t="n">
         <v>1427</v>
       </c>
       <c r="V22" s="7" t="n">
         <f aca="false">SUM(V16:V21)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W22" s="7" t="n">
         <f aca="false">SUM(W16:W21)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="X22" s="6" t="n">
         <f aca="false">V22/(V22+W22)</f>
-        <v>0.564102564102564</v>
+        <v>0.621621621621622</v>
       </c>
       <c r="Y22" s="6" t="n">
         <f aca="false">V22/U22</f>
-        <v>0.01541695865452</v>
+        <v>0.0161177295024527</v>
       </c>
       <c r="Z22" s="6" t="n">
         <f aca="false">(2*X22*Y22)/(X22+Y22)</f>
-        <v>0.0300136425648022</v>
+        <v>0.0314207650273224</v>
       </c>
       <c r="AA22" s="5" t="n">
         <f aca="false">C22+I22+O22+U22</f>
@@ -23572,23 +23585,23 @@
       </c>
       <c r="AB22" s="5" t="n">
         <f aca="false">D22+J22+P22+V22</f>
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="AC22" s="5" t="n">
         <f aca="false">E22+K22+Q22+W22</f>
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD22" s="6" t="n">
         <f aca="false">AB22/(AB22+AC22)</f>
-        <v>0.703883495145631</v>
+        <v>0.730769230769231</v>
       </c>
       <c r="AE22" s="6" t="n">
         <f aca="false">AB22/AA22</f>
-        <v>0.0655811849841701</v>
+        <v>0.0687471732247852</v>
       </c>
       <c r="AF22" s="6" t="n">
         <f aca="false">(2*AD22*AE22)/(AD22+AE22)</f>
-        <v>0.119983450558544</v>
+        <v>0.125671765192228</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23620,19 +23633,19 @@
         <v>75</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>0.525423728813559</v>
+        <v>0.516949152542373</v>
       </c>
       <c r="M23" s="4" t="n">
-        <v>0.826666666666667</v>
+        <v>0.813333333333333</v>
       </c>
       <c r="N23" s="4" t="n">
-        <v>0.642487046632124</v>
+        <v>0.632124352331606</v>
       </c>
       <c r="O23" s="0" t="n">
         <v>44</v>
@@ -23641,34 +23654,34 @@
         <v>9</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>0.310344827586207</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="S23" s="4" t="n">
         <v>0.204545454545455</v>
       </c>
       <c r="T23" s="4" t="n">
-        <v>0.246575342465753</v>
+        <v>0.233766233766234</v>
       </c>
       <c r="U23" s="0" t="n">
         <v>384</v>
       </c>
       <c r="V23" s="0" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="W23" s="0" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="X23" s="4" t="n">
-        <v>0.503030303030303</v>
+        <v>0.539393939393939</v>
       </c>
       <c r="Y23" s="4" t="n">
-        <v>0.216145833333333</v>
+        <v>0.231770833333333</v>
       </c>
       <c r="Z23" s="4" t="n">
-        <v>0.302367941712204</v>
+        <v>0.324225865209472</v>
       </c>
       <c r="AA23" s="0" t="n">
         <f aca="false">C23+I23+O23+U23</f>
@@ -23676,23 +23689,23 @@
       </c>
       <c r="AB23" s="0" t="n">
         <f aca="false">D23+J23+P23+V23</f>
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AC23" s="0" t="n">
         <f aca="false">E23+K23+Q23+W23</f>
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD23" s="4" t="n">
         <f aca="false">AB23/(AB23+AC23)</f>
-        <v>0.525222551928783</v>
+        <v>0.533724340175953</v>
       </c>
       <c r="AE23" s="4" t="n">
         <f aca="false">AB23/AA23</f>
-        <v>0.336501901140684</v>
+        <v>0.346007604562738</v>
       </c>
       <c r="AF23" s="4" t="n">
         <f aca="false">(2*AD23*AE23)/(AD23+AE23)</f>
-        <v>0.410196987253766</v>
+        <v>0.419838523644752</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23742,34 +23755,34 @@
         <v>48</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>0.457142857142857</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="S24" s="4" t="n">
         <v>0.372093023255814</v>
       </c>
       <c r="T24" s="4" t="n">
-        <v>0.41025641025641</v>
+        <v>0.412017167381974</v>
       </c>
       <c r="U24" s="0" t="n">
         <v>274</v>
       </c>
       <c r="V24" s="0" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W24" s="0" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X24" s="4" t="n">
-        <v>0.539823008849557</v>
+        <v>0.55045871559633</v>
       </c>
       <c r="Y24" s="4" t="n">
-        <v>0.222627737226277</v>
+        <v>0.218978102189781</v>
       </c>
       <c r="Z24" s="4" t="n">
-        <v>0.315245478036176</v>
+        <v>0.31331592689295</v>
       </c>
       <c r="AA24" s="0" t="n">
         <f aca="false">C24+I24+O24+U24</f>
@@ -23777,23 +23790,23 @@
       </c>
       <c r="AB24" s="0" t="n">
         <f aca="false">D24+J24+P24+V24</f>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AC24" s="0" t="n">
         <f aca="false">E24+K24+Q24+W24</f>
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AD24" s="4" t="n">
         <f aca="false">AB24/(AB24+AC24)</f>
-        <v>0.549019607843137</v>
+        <v>0.556</v>
       </c>
       <c r="AE24" s="4" t="n">
         <f aca="false">AB24/AA24</f>
-        <v>0.292887029288703</v>
+        <v>0.290794979079498</v>
       </c>
       <c r="AF24" s="4" t="n">
         <f aca="false">(2*AD24*AE24)/(AD24+AE24)</f>
-        <v>0.381991814461119</v>
+        <v>0.381868131868132</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23861,7 +23874,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" s="4" t="n">
         <v>0</v>
@@ -23882,11 +23895,11 @@
       </c>
       <c r="AC25" s="0" t="n">
         <f aca="false">E25+K25+Q25+W25</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD25" s="4" t="n">
         <f aca="false">AB25/(AB25+AC25)</f>
-        <v>0.928571428571429</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="AE25" s="4" t="n">
         <f aca="false">AB25/AA25</f>
@@ -23894,7 +23907,7 @@
       </c>
       <c r="AF25" s="4" t="n">
         <f aca="false">(2*AD25*AE25)/(AD25+AE25)</f>
-        <v>0.490566037735849</v>
+        <v>0.481481481481481</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23959,19 +23972,19 @@
         <v>56</v>
       </c>
       <c r="V26" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X26" s="4" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="Y26" s="4" t="n">
-        <v>0</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="Z26" s="4" t="n">
-        <v>0</v>
+        <v>0.03125</v>
       </c>
       <c r="AA26" s="0" t="n">
         <f aca="false">C26+I26+O26+U26</f>
@@ -23979,23 +23992,23 @@
       </c>
       <c r="AB26" s="0" t="n">
         <f aca="false">D26+J26+P26+V26</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC26" s="0" t="n">
         <f aca="false">E26+K26+Q26+W26</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AD26" s="4" t="n">
         <f aca="false">AB26/(AB26+AC26)</f>
-        <v>0.269230769230769</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="AE26" s="4" t="n">
         <f aca="false">AB26/AA26</f>
-        <v>0.0752688172043011</v>
+        <v>0.0860215053763441</v>
       </c>
       <c r="AF26" s="4" t="n">
         <f aca="false">(2*AD26*AE26)/(AD26+AE26)</f>
-        <v>0.117647058823529</v>
+        <v>0.132231404958678</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24024,55 +24037,55 @@
         <v>56</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>0.731707317073171</v>
+        <v>0.743589743589744</v>
       </c>
       <c r="M27" s="4" t="n">
-        <v>0.535714285714286</v>
+        <v>0.517857142857143</v>
       </c>
       <c r="N27" s="4" t="n">
-        <v>0.618556701030928</v>
+        <v>0.610526315789474</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>68</v>
       </c>
       <c r="P27" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="Q27" s="0" t="n">
-        <v>36</v>
-      </c>
       <c r="R27" s="4" t="n">
-        <v>0.492957746478873</v>
+        <v>0.507042253521127</v>
       </c>
       <c r="S27" s="4" t="n">
-        <v>0.514705882352941</v>
+        <v>0.529411764705882</v>
       </c>
       <c r="T27" s="4" t="n">
-        <v>0.503597122302158</v>
+        <v>0.517985611510791</v>
       </c>
       <c r="U27" s="0" t="n">
         <v>53</v>
       </c>
       <c r="V27" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W27" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X27" s="4" t="n">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="Y27" s="4" t="n">
-        <v>0.0377358490566038</v>
+        <v>0.0566037735849057</v>
       </c>
       <c r="Z27" s="4" t="n">
-        <v>0.0579710144927536</v>
+        <v>0.0882352941176471</v>
       </c>
       <c r="AA27" s="0" t="n">
         <f aca="false">C27+I27+O27+U27</f>
@@ -24080,23 +24093,23 @@
       </c>
       <c r="AB27" s="0" t="n">
         <f aca="false">D27+J27+P27+V27</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC27" s="0" t="n">
         <f aca="false">E27+K27+Q27+W27</f>
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AD27" s="4" t="n">
         <f aca="false">AB27/(AB27+AC27)</f>
-        <v>0.530769230769231</v>
+        <v>0.551181102362205</v>
       </c>
       <c r="AE27" s="4" t="n">
         <f aca="false">AB27/AA27</f>
-        <v>0.385474860335195</v>
+        <v>0.391061452513966</v>
       </c>
       <c r="AF27" s="4" t="n">
         <f aca="false">(2*AD27*AE27)/(AD27+AE27)</f>
-        <v>0.446601941747573</v>
+        <v>0.457516339869281</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24125,55 +24138,55 @@
         <v>86</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>0.425925925925926</v>
+        <v>0.427272727272727</v>
       </c>
       <c r="M28" s="4" t="n">
-        <v>0.534883720930232</v>
+        <v>0.546511627906977</v>
       </c>
       <c r="N28" s="4" t="n">
-        <v>0.474226804123711</v>
+        <v>0.479591836734694</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>164</v>
       </c>
       <c r="P28" s="0" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q28" s="0" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>0.439252336448598</v>
+        <v>0.440758293838863</v>
       </c>
       <c r="S28" s="4" t="n">
-        <v>0.573170731707317</v>
+        <v>0.567073170731707</v>
       </c>
       <c r="T28" s="4" t="n">
-        <v>0.497354497354497</v>
+        <v>0.496</v>
       </c>
       <c r="U28" s="0" t="n">
         <v>638</v>
       </c>
       <c r="V28" s="0" t="n">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="W28" s="0" t="n">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="X28" s="4" t="n">
-        <v>0.476486246672582</v>
+        <v>0.485385296722764</v>
       </c>
       <c r="Y28" s="4" t="n">
-        <v>0.841692789968652</v>
+        <v>0.858934169278997</v>
       </c>
       <c r="Z28" s="4" t="n">
-        <v>0.608498583569405</v>
+        <v>0.620260328239955</v>
       </c>
       <c r="AA28" s="0" t="n">
         <f aca="false">C28+I28+O28+U28</f>
@@ -24181,23 +24194,23 @@
       </c>
       <c r="AB28" s="0" t="n">
         <f aca="false">D28+J28+P28+V28</f>
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="AC28" s="0" t="n">
         <f aca="false">E28+K28+Q28+W28</f>
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="AD28" s="4" t="n">
         <f aca="false">AB28/(AB28+AC28)</f>
-        <v>0.467218771566598</v>
+        <v>0.47448275862069</v>
       </c>
       <c r="AE28" s="4" t="n">
         <f aca="false">AB28/AA28</f>
-        <v>0.755580357142857</v>
+        <v>0.767857142857143</v>
       </c>
       <c r="AF28" s="4" t="n">
         <f aca="false">(2*AD28*AE28)/(AD28+AE28)</f>
-        <v>0.577398720682303</v>
+        <v>0.586530264279625</v>
       </c>
     </row>
     <row r="29" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24229,23 +24242,23 @@
       </c>
       <c r="J29" s="5" t="n">
         <f aca="false">SUM(J23:J28)</f>
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K29" s="5" t="n">
         <f aca="false">SUM(K23:K28)</f>
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L29" s="6" t="n">
         <f aca="false">J29/(J29+K29)</f>
-        <v>0.546623794212219</v>
+        <v>0.543408360128617</v>
       </c>
       <c r="M29" s="6" t="n">
         <f aca="false">J29/I29</f>
-        <v>0.546623794212219</v>
+        <v>0.543408360128617</v>
       </c>
       <c r="N29" s="6" t="n">
         <f aca="false">(2*L29*M29)/(L29+M29)</f>
-        <v>0.546623794212219</v>
+        <v>0.543408360128617</v>
       </c>
       <c r="O29" s="7" t="n">
         <v>423</v>
@@ -24275,23 +24288,23 @@
       </c>
       <c r="V29" s="7" t="n">
         <f aca="false">SUM(V23:V28)</f>
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="W29" s="7" t="n">
         <f aca="false">SUM(W23:W28)</f>
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="X29" s="6" t="n">
         <f aca="false">V29/(V29+W29)</f>
-        <v>0.478626489138052</v>
+        <v>0.491240364400841</v>
       </c>
       <c r="Y29" s="6" t="n">
         <f aca="false">V29/U29</f>
-        <v>0.478626489138052</v>
+        <v>0.491240364400841</v>
       </c>
       <c r="Z29" s="6" t="n">
         <f aca="false">(2*X29*Y29)/(X29+Y29)</f>
-        <v>0.478626489138052</v>
+        <v>0.491240364400841</v>
       </c>
       <c r="AA29" s="5" t="n">
         <f aca="false">C29+I29+O29+U29</f>
@@ -24299,23 +24312,23 @@
       </c>
       <c r="AB29" s="5" t="n">
         <f aca="false">D29+J29+P29+V29</f>
-        <v>1083</v>
+        <v>1100</v>
       </c>
       <c r="AC29" s="5" t="n">
         <f aca="false">E29+K29+Q29+W29</f>
-        <v>1128</v>
+        <v>1111</v>
       </c>
       <c r="AD29" s="6" t="n">
         <f aca="false">AB29/(AB29+AC29)</f>
-        <v>0.489823609226594</v>
+        <v>0.497512437810945</v>
       </c>
       <c r="AE29" s="6" t="n">
         <f aca="false">AB29/AA29</f>
-        <v>0.489823609226594</v>
+        <v>0.497512437810945</v>
       </c>
       <c r="AF29" s="6" t="n">
         <f aca="false">(2*AD29*AE29)/(AD29+AE29)</f>
-        <v>0.489823609226594</v>
+        <v>0.497512437810945</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24347,19 +24360,19 @@
         <v>75</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>0.525423728813559</v>
+        <v>0.516949152542373</v>
       </c>
       <c r="M30" s="4" t="n">
-        <v>0.826666666666667</v>
+        <v>0.813333333333333</v>
       </c>
       <c r="N30" s="4" t="n">
-        <v>0.642487046632124</v>
+        <v>0.632124352331606</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>44</v>
@@ -24383,19 +24396,19 @@
         <v>384</v>
       </c>
       <c r="V30" s="0" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="W30" s="0" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X30" s="4" t="n">
-        <v>0.514970059880239</v>
+        <v>0.535294117647059</v>
       </c>
       <c r="Y30" s="4" t="n">
-        <v>0.223958333333333</v>
+        <v>0.236979166666667</v>
       </c>
       <c r="Z30" s="4" t="n">
-        <v>0.312159709618875</v>
+        <v>0.328519855595668</v>
       </c>
       <c r="AA30" s="0" t="n">
         <f aca="false">C30+I30+O30+U30</f>
@@ -24403,23 +24416,23 @@
       </c>
       <c r="AB30" s="0" t="n">
         <f aca="false">D30+J30+P30+V30</f>
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AC30" s="0" t="n">
         <f aca="false">E30+K30+Q30+W30</f>
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AD30" s="4" t="n">
         <f aca="false">AB30/(AB30+AC30)</f>
-        <v>0.529069767441861</v>
+        <v>0.536023054755043</v>
       </c>
       <c r="AE30" s="4" t="n">
         <f aca="false">AB30/AA30</f>
-        <v>0.346007604562738</v>
+        <v>0.35361216730038</v>
       </c>
       <c r="AF30" s="4" t="n">
         <f aca="false">(2*AD30*AE30)/(AD30+AE30)</f>
-        <v>0.418390804597701</v>
+        <v>0.426116838487973</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24469,37 +24482,37 @@
         <v>129</v>
       </c>
       <c r="P31" s="0" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q31" s="0" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>0.559633027522936</v>
+        <v>0.546296296296296</v>
       </c>
       <c r="S31" s="4" t="n">
-        <v>0.472868217054264</v>
+        <v>0.457364341085271</v>
       </c>
       <c r="T31" s="4" t="n">
-        <v>0.512605042016807</v>
+        <v>0.49789029535865</v>
       </c>
       <c r="U31" s="0" t="n">
         <v>274</v>
       </c>
       <c r="V31" s="0" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="W31" s="0" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="X31" s="4" t="n">
-        <v>0.579439252336449</v>
+        <v>0.537735849056604</v>
       </c>
       <c r="Y31" s="4" t="n">
-        <v>0.226277372262774</v>
+        <v>0.208029197080292</v>
       </c>
       <c r="Z31" s="4" t="n">
-        <v>0.325459317585302</v>
+        <v>0.3</v>
       </c>
       <c r="AA31" s="0" t="n">
         <f aca="false">C31+I31+O31+U31</f>
@@ -24507,23 +24520,23 @@
       </c>
       <c r="AB31" s="0" t="n">
         <f aca="false">D31+J31+P31+V31</f>
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="AC31" s="0" t="n">
         <f aca="false">E31+K31+Q31+W31</f>
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AD31" s="4" t="n">
         <f aca="false">AB31/(AB31+AC31)</f>
-        <v>0.608695652173913</v>
+        <v>0.585657370517928</v>
       </c>
       <c r="AE31" s="4" t="n">
         <f aca="false">AB31/AA31</f>
-        <v>0.322175732217573</v>
+        <v>0.307531380753138</v>
       </c>
       <c r="AF31" s="4" t="n">
         <f aca="false">(2*AD31*AE31)/(AD31+AE31)</f>
-        <v>0.421340629274966</v>
+        <v>0.403292181069959</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24591,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" s="4" t="n">
         <v>0</v>
@@ -24612,11 +24625,11 @@
       </c>
       <c r="AC32" s="0" t="n">
         <f aca="false">E32+K32+Q32+W32</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD32" s="4" t="n">
         <f aca="false">AB32/(AB32+AC32)</f>
-        <v>0.928571428571429</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="AE32" s="4" t="n">
         <f aca="false">AB32/AA32</f>
@@ -24624,7 +24637,7 @@
       </c>
       <c r="AF32" s="4" t="n">
         <f aca="false">(2*AD32*AE32)/(AD32+AE32)</f>
-        <v>0.490566037735849</v>
+        <v>0.481481481481481</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24674,7 +24687,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R33" s="4" t="n">
         <v>0</v>
@@ -24692,16 +24705,16 @@
         <v>1</v>
       </c>
       <c r="W33" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X33" s="4" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="Y33" s="4" t="n">
         <v>0.0178571428571429</v>
       </c>
       <c r="Z33" s="4" t="n">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="AA33" s="0" t="n">
         <f aca="false">C33+I33+O33+U33</f>
@@ -24713,11 +24726,11 @@
       </c>
       <c r="AC33" s="0" t="n">
         <f aca="false">E33+K33+Q33+W33</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD33" s="4" t="n">
         <f aca="false">AB33/(AB33+AC33)</f>
-        <v>0.275862068965517</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="AE33" s="4" t="n">
         <f aca="false">AB33/AA33</f>
@@ -24725,7 +24738,7 @@
       </c>
       <c r="AF33" s="4" t="n">
         <f aca="false">(2*AD33*AE33)/(AD33+AE33)</f>
-        <v>0.131147540983607</v>
+        <v>0.130081300813008</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24754,19 +24767,19 @@
         <v>56</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>0.731707317073171</v>
+        <v>0.743589743589744</v>
       </c>
       <c r="M34" s="4" t="n">
-        <v>0.535714285714286</v>
+        <v>0.517857142857143</v>
       </c>
       <c r="N34" s="4" t="n">
-        <v>0.618556701030928</v>
+        <v>0.610526315789474</v>
       </c>
       <c r="O34" s="0" t="n">
         <v>68</v>
@@ -24775,34 +24788,34 @@
         <v>40</v>
       </c>
       <c r="Q34" s="0" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>0.547945205479452</v>
+        <v>0.540540540540541</v>
       </c>
       <c r="S34" s="4" t="n">
         <v>0.588235294117647</v>
       </c>
       <c r="T34" s="4" t="n">
-        <v>0.567375886524823</v>
+        <v>0.563380281690141</v>
       </c>
       <c r="U34" s="0" t="n">
         <v>53</v>
       </c>
       <c r="V34" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W34" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X34" s="4" t="n">
-        <v>0.117647058823529</v>
+        <v>0.1875</v>
       </c>
       <c r="Y34" s="4" t="n">
-        <v>0.0377358490566038</v>
+        <v>0.0566037735849057</v>
       </c>
       <c r="Z34" s="4" t="n">
-        <v>0.0571428571428572</v>
+        <v>0.0869565217391305</v>
       </c>
       <c r="AA34" s="0" t="n">
         <f aca="false">C34+I34+O34+U34</f>
@@ -24814,11 +24827,11 @@
       </c>
       <c r="AC34" s="0" t="n">
         <f aca="false">E34+K34+Q34+W34</f>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD34" s="4" t="n">
         <f aca="false">AB34/(AB34+AC34)</f>
-        <v>0.556390977443609</v>
+        <v>0.564885496183206</v>
       </c>
       <c r="AE34" s="4" t="n">
         <f aca="false">AB34/AA34</f>
@@ -24826,7 +24839,7 @@
       </c>
       <c r="AF34" s="4" t="n">
         <f aca="false">(2*AD34*AE34)/(AD34+AE34)</f>
-        <v>0.474358974358974</v>
+        <v>0.47741935483871</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24855,55 +24868,55 @@
         <v>86</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>0.425925925925926</v>
+        <v>0.427272727272727</v>
       </c>
       <c r="M35" s="4" t="n">
-        <v>0.534883720930232</v>
+        <v>0.546511627906977</v>
       </c>
       <c r="N35" s="4" t="n">
-        <v>0.474226804123711</v>
+        <v>0.479591836734694</v>
       </c>
       <c r="O35" s="0" t="n">
         <v>164</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q35" s="0" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>0.475247524752475</v>
+        <v>0.467980295566503</v>
       </c>
       <c r="S35" s="4" t="n">
-        <v>0.585365853658537</v>
+        <v>0.579268292682927</v>
       </c>
       <c r="T35" s="4" t="n">
-        <v>0.524590163934426</v>
+        <v>0.517711171662125</v>
       </c>
       <c r="U35" s="0" t="n">
         <v>638</v>
       </c>
       <c r="V35" s="0" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="W35" s="0" t="n">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="X35" s="4" t="n">
-        <v>0.478723404255319</v>
+        <v>0.481316725978648</v>
       </c>
       <c r="Y35" s="4" t="n">
-        <v>0.846394984326019</v>
+        <v>0.847962382445141</v>
       </c>
       <c r="Z35" s="4" t="n">
-        <v>0.611551528878822</v>
+        <v>0.614074914869467</v>
       </c>
       <c r="AA35" s="0" t="n">
         <f aca="false">C35+I35+O35+U35</f>
@@ -24911,23 +24924,23 @@
       </c>
       <c r="AB35" s="0" t="n">
         <f aca="false">D35+J35+P35+V35</f>
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AC35" s="0" t="n">
         <f aca="false">E35+K35+Q35+W35</f>
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AD35" s="4" t="n">
         <f aca="false">AB35/(AB35+AC35)</f>
-        <v>0.474269819193324</v>
+        <v>0.475295755045233</v>
       </c>
       <c r="AE35" s="4" t="n">
         <f aca="false">AB35/AA35</f>
-        <v>0.761160714285714</v>
+        <v>0.762276785714286</v>
       </c>
       <c r="AF35" s="4" t="n">
         <f aca="false">(2*AD35*AE35)/(AD35+AE35)</f>
-        <v>0.584404455869752</v>
+        <v>0.585512216030862</v>
       </c>
     </row>
     <row r="36" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24959,69 +24972,69 @@
       </c>
       <c r="J36" s="5" t="n">
         <f aca="false">SUM(J30:J35)</f>
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K36" s="5" t="n">
         <f aca="false">SUM(K30:K35)</f>
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L36" s="6" t="n">
         <f aca="false">J36/(J36+K36)</f>
-        <v>0.546623794212219</v>
+        <v>0.543408360128617</v>
       </c>
       <c r="M36" s="6" t="n">
         <f aca="false">J36/I36</f>
-        <v>0.546623794212219</v>
+        <v>0.543408360128617</v>
       </c>
       <c r="N36" s="6" t="n">
         <f aca="false">(2*L36*M36)/(L36+M36)</f>
-        <v>0.546623794212219</v>
+        <v>0.543408360128617</v>
       </c>
       <c r="O36" s="7" t="n">
         <v>423</v>
       </c>
       <c r="P36" s="7" t="n">
         <f aca="false">SUM(P30:P35)</f>
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q36" s="7" t="n">
         <f aca="false">SUM(Q30:Q35)</f>
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="R36" s="6" t="n">
         <f aca="false">P36/(P36+Q36)</f>
-        <v>0.49645390070922</v>
+        <v>0.48936170212766</v>
       </c>
       <c r="S36" s="6" t="n">
         <f aca="false">P36/O36</f>
-        <v>0.49645390070922</v>
+        <v>0.48936170212766</v>
       </c>
       <c r="T36" s="6" t="n">
         <f aca="false">(2*R36*S36)/(R36+S36)</f>
-        <v>0.49645390070922</v>
+        <v>0.48936170212766</v>
       </c>
       <c r="U36" s="7" t="n">
         <v>1427</v>
       </c>
       <c r="V36" s="7" t="n">
         <f aca="false">SUM(V30:V35)</f>
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="W36" s="7" t="n">
         <f aca="false">SUM(W30:W35)</f>
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="X36" s="6" t="n">
         <f aca="false">V36/(V36+W36)</f>
-        <v>0.484232655921514</v>
+        <v>0.485634197617379</v>
       </c>
       <c r="Y36" s="6" t="n">
         <f aca="false">V36/U36</f>
-        <v>0.484232655921514</v>
+        <v>0.485634197617379</v>
       </c>
       <c r="Z36" s="6" t="n">
         <f aca="false">(2*X36*Y36)/(X36+Y36)</f>
-        <v>0.484232655921514</v>
+        <v>0.485634197617379</v>
       </c>
       <c r="AA36" s="5" t="n">
         <f aca="false">C36+I36+O36+U36</f>
@@ -25029,23 +25042,23 @@
       </c>
       <c r="AB36" s="5" t="n">
         <f aca="false">D36+J36+P36+V36</f>
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="AC36" s="5" t="n">
         <f aca="false">E36+K36+Q36+W36</f>
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="AD36" s="6" t="n">
         <f aca="false">AB36/(AB36+AC36)</f>
-        <v>0.503392130257802</v>
+        <v>0.502487562189055</v>
       </c>
       <c r="AE36" s="6" t="n">
         <f aca="false">AB36/AA36</f>
-        <v>0.503392130257802</v>
+        <v>0.502487562189055</v>
       </c>
       <c r="AF36" s="6" t="n">
         <f aca="false">(2*AD36*AE36)/(AD36+AE36)</f>
-        <v>0.503392130257802</v>
+        <v>0.502487562189055</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25077,19 +25090,19 @@
         <v>75</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>0.539130434782609</v>
+        <v>0.539823008849557</v>
       </c>
       <c r="M37" s="4" t="n">
-        <v>0.826666666666667</v>
+        <v>0.813333333333333</v>
       </c>
       <c r="N37" s="4" t="n">
-        <v>0.652631578947368</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="O37" s="0" t="n">
         <v>44</v>
@@ -25098,34 +25111,34 @@
         <v>11</v>
       </c>
       <c r="Q37" s="0" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>0.366666666666667</v>
+        <v>0.323529411764706</v>
       </c>
       <c r="S37" s="4" t="n">
         <v>0.25</v>
       </c>
       <c r="T37" s="4" t="n">
-        <v>0.297297297297297</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="U37" s="0" t="n">
         <v>384</v>
       </c>
       <c r="V37" s="0" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="W37" s="0" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="X37" s="4" t="n">
-        <v>0.494047619047619</v>
+        <v>0.532544378698225</v>
       </c>
       <c r="Y37" s="4" t="n">
-        <v>0.216145833333333</v>
+        <v>0.234375</v>
       </c>
       <c r="Z37" s="4" t="n">
-        <v>0.300724637681159</v>
+        <v>0.325497287522604</v>
       </c>
       <c r="AA37" s="0" t="n">
         <f aca="false">C37+I37+O37+U37</f>
@@ -25133,23 +25146,23 @@
       </c>
       <c r="AB37" s="0" t="n">
         <f aca="false">D37+J37+P37+V37</f>
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AC37" s="0" t="n">
         <f aca="false">E37+K37+Q37+W37</f>
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AD37" s="4" t="n">
         <f aca="false">AB37/(AB37+AC37)</f>
-        <v>0.521341463414634</v>
+        <v>0.534743202416918</v>
       </c>
       <c r="AE37" s="4" t="n">
         <f aca="false">AB37/AA37</f>
-        <v>0.33011583011583</v>
+        <v>0.341698841698842</v>
       </c>
       <c r="AF37" s="4" t="n">
         <f aca="false">(2*AD37*AE37)/(AD37+AE37)</f>
-        <v>0.404255319148936</v>
+        <v>0.41696113074205</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25199,34 +25212,34 @@
         <v>52</v>
       </c>
       <c r="Q38" s="0" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>0.477064220183486</v>
+        <v>0.481481481481482</v>
       </c>
       <c r="S38" s="4" t="n">
         <v>0.403100775193798</v>
       </c>
       <c r="T38" s="4" t="n">
-        <v>0.436974789915966</v>
+        <v>0.438818565400844</v>
       </c>
       <c r="U38" s="0" t="n">
         <v>274</v>
       </c>
       <c r="V38" s="0" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W38" s="0" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X38" s="4" t="n">
-        <v>0.53448275862069</v>
+        <v>0.54954954954955</v>
       </c>
       <c r="Y38" s="4" t="n">
-        <v>0.226277372262774</v>
+        <v>0.222627737226277</v>
       </c>
       <c r="Z38" s="4" t="n">
-        <v>0.317948717948718</v>
+        <v>0.316883116883117</v>
       </c>
       <c r="AA38" s="0" t="n">
         <f aca="false">C38+I38+O38+U38</f>
@@ -25234,23 +25247,23 @@
       </c>
       <c r="AB38" s="0" t="n">
         <f aca="false">D38+J38+P38+V38</f>
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AC38" s="0" t="n">
         <f aca="false">E38+K38+Q38+W38</f>
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AD38" s="4" t="n">
         <f aca="false">AB38/(AB38+AC38)</f>
-        <v>0.565693430656934</v>
+        <v>0.574626865671642</v>
       </c>
       <c r="AE38" s="4" t="n">
         <f aca="false">AB38/AA38</f>
-        <v>0.318930041152263</v>
+        <v>0.316872427983539</v>
       </c>
       <c r="AF38" s="4" t="n">
         <f aca="false">(2*AD38*AE38)/(AD38+AE38)</f>
-        <v>0.407894736842105</v>
+        <v>0.408488063660477</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25318,7 +25331,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" s="4" t="n">
         <v>0</v>
@@ -25339,11 +25352,11 @@
       </c>
       <c r="AC39" s="0" t="n">
         <f aca="false">E39+K39+Q39+W39</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD39" s="4" t="n">
         <f aca="false">AB39/(AB39+AC39)</f>
-        <v>0.928571428571429</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="AE39" s="4" t="n">
         <f aca="false">AB39/AA39</f>
@@ -25351,7 +25364,7 @@
       </c>
       <c r="AF39" s="4" t="n">
         <f aca="false">(2*AD39*AE39)/(AD39+AE39)</f>
-        <v>0.490566037735849</v>
+        <v>0.481481481481481</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25416,19 +25429,19 @@
         <v>56</v>
       </c>
       <c r="V40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W40" s="0" t="n">
         <v>7</v>
       </c>
       <c r="X40" s="4" t="n">
-        <v>0.125</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="Y40" s="4" t="n">
-        <v>0.0178571428571429</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="Z40" s="4" t="n">
-        <v>0.03125</v>
+        <v>0.0615384615384615</v>
       </c>
       <c r="AA40" s="0" t="n">
         <f aca="false">C40+I40+O40+U40</f>
@@ -25436,7 +25449,7 @@
       </c>
       <c r="AB40" s="0" t="n">
         <f aca="false">D40+J40+P40+V40</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC40" s="0" t="n">
         <f aca="false">E40+K40+Q40+W40</f>
@@ -25444,15 +25457,15 @@
       </c>
       <c r="AD40" s="4" t="n">
         <f aca="false">AB40/(AB40+AC40)</f>
-        <v>0.357142857142857</v>
+        <v>0.379310344827586</v>
       </c>
       <c r="AE40" s="4" t="n">
         <f aca="false">AB40/AA40</f>
-        <v>0.10752688172043</v>
+        <v>0.118279569892473</v>
       </c>
       <c r="AF40" s="4" t="n">
         <f aca="false">(2*AD40*AE40)/(AD40+AE40)</f>
-        <v>0.165289256198347</v>
+        <v>0.180327868852459</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25481,55 +25494,55 @@
         <v>56</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>0.714285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>0.625</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>0.666666666666667</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="O41" s="0" t="n">
         <v>68</v>
       </c>
       <c r="P41" s="0" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q41" s="0" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>0.493150684931507</v>
+        <v>0.513888888888889</v>
       </c>
       <c r="S41" s="4" t="n">
-        <v>0.529411764705882</v>
+        <v>0.544117647058823</v>
       </c>
       <c r="T41" s="4" t="n">
-        <v>0.51063829787234</v>
+        <v>0.528571428571429</v>
       </c>
       <c r="U41" s="0" t="n">
         <v>53</v>
       </c>
       <c r="V41" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W41" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X41" s="4" t="n">
-        <v>0.166666666666667</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="Y41" s="4" t="n">
-        <v>0.0566037735849057</v>
+        <v>0.0754716981132075</v>
       </c>
       <c r="Z41" s="4" t="n">
-        <v>0.0845070422535211</v>
+        <v>0.114285714285714</v>
       </c>
       <c r="AA41" s="0" t="n">
         <f aca="false">C41+I41+O41+U41</f>
@@ -25537,23 +25550,23 @@
       </c>
       <c r="AB41" s="0" t="n">
         <f aca="false">D41+J41+P41+V41</f>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC41" s="0" t="n">
         <f aca="false">E41+K41+Q41+W41</f>
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="AD41" s="4" t="n">
         <f aca="false">AB41/(AB41+AC41)</f>
-        <v>0.527777777777778</v>
+        <v>0.560283687943262</v>
       </c>
       <c r="AE41" s="4" t="n">
         <f aca="false">AB41/AA41</f>
-        <v>0.424581005586592</v>
+        <v>0.441340782122905</v>
       </c>
       <c r="AF41" s="4" t="n">
         <f aca="false">(2*AD41*AE41)/(AD41+AE41)</f>
-        <v>0.470588235294118</v>
+        <v>0.49375</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25582,19 +25595,19 @@
         <v>86</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>0.435643564356436</v>
+        <v>0.442307692307692</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>0.511627906976744</v>
+        <v>0.534883720930232</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>0.470588235294118</v>
+        <v>0.484210526315789</v>
       </c>
       <c r="O42" s="0" t="n">
         <v>164</v>
@@ -25603,34 +25616,34 @@
         <v>92</v>
       </c>
       <c r="Q42" s="0" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>0.448780487804878</v>
+        <v>0.45320197044335</v>
       </c>
       <c r="S42" s="4" t="n">
         <v>0.560975609756098</v>
       </c>
       <c r="T42" s="4" t="n">
-        <v>0.498644986449864</v>
+        <v>0.501362397820164</v>
       </c>
       <c r="U42" s="0" t="n">
         <v>638</v>
       </c>
       <c r="V42" s="0" t="n">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="W42" s="0" t="n">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="X42" s="4" t="n">
-        <v>0.474485228290063</v>
+        <v>0.484821428571429</v>
       </c>
       <c r="Y42" s="4" t="n">
-        <v>0.830721003134796</v>
+        <v>0.851097178683385</v>
       </c>
       <c r="Z42" s="4" t="n">
-        <v>0.603988603988604</v>
+        <v>0.617747440273037</v>
       </c>
       <c r="AA42" s="0" t="n">
         <f aca="false">C42+I42+O42+U42</f>
@@ -25638,23 +25651,23 @@
       </c>
       <c r="AB42" s="0" t="n">
         <f aca="false">D42+J42+P42+V42</f>
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="AC42" s="0" t="n">
         <f aca="false">E42+K42+Q42+W42</f>
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="AD42" s="4" t="n">
         <f aca="false">AB42/(AB42+AC42)</f>
-        <v>0.468025298664793</v>
+        <v>0.477224947442186</v>
       </c>
       <c r="AE42" s="4" t="n">
         <f aca="false">AB42/AA42</f>
-        <v>0.743303571428571</v>
+        <v>0.760044642857143</v>
       </c>
       <c r="AF42" s="4" t="n">
         <f aca="false">(2*AD42*AE42)/(AD42+AE42)</f>
-        <v>0.574385510996119</v>
+        <v>0.586310804993543</v>
       </c>
     </row>
     <row r="43" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25686,69 +25699,69 @@
       </c>
       <c r="J43" s="5" t="n">
         <f aca="false">SUM(J37:J42)</f>
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K43" s="5" t="n">
         <f aca="false">SUM(K37:K42)</f>
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L43" s="6" t="n">
         <f aca="false">J43/(J43+K43)</f>
-        <v>0.562700964630225</v>
+        <v>0.569131832797428</v>
       </c>
       <c r="M43" s="6" t="n">
         <f aca="false">J43/I43</f>
-        <v>0.562700964630225</v>
+        <v>0.569131832797428</v>
       </c>
       <c r="N43" s="6" t="n">
         <f aca="false">(2*L43*M43)/(L43+M43)</f>
-        <v>0.562700964630225</v>
+        <v>0.569131832797428</v>
       </c>
       <c r="O43" s="7" t="n">
         <v>423</v>
       </c>
       <c r="P43" s="7" t="n">
         <f aca="false">SUM(P37:P42)</f>
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q43" s="7" t="n">
         <f aca="false">SUM(Q37:Q42)</f>
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R43" s="6" t="n">
         <f aca="false">P43/(P43+Q43)</f>
-        <v>0.460992907801418</v>
+        <v>0.463356973995272</v>
       </c>
       <c r="S43" s="6" t="n">
         <f aca="false">P43/O43</f>
-        <v>0.460992907801418</v>
+        <v>0.463356973995272</v>
       </c>
       <c r="T43" s="6" t="n">
         <f aca="false">(2*R43*S43)/(R43+S43)</f>
-        <v>0.460992907801418</v>
+        <v>0.463356973995272</v>
       </c>
       <c r="U43" s="7" t="n">
         <v>1427</v>
       </c>
       <c r="V43" s="7" t="n">
         <f aca="false">SUM(V37:V42)</f>
-        <v>679</v>
+        <v>700</v>
       </c>
       <c r="W43" s="7" t="n">
         <f aca="false">SUM(W37:W42)</f>
-        <v>748</v>
+        <v>727</v>
       </c>
       <c r="X43" s="6" t="n">
         <f aca="false">V43/(V43+W43)</f>
-        <v>0.475823405746321</v>
+        <v>0.490539593552908</v>
       </c>
       <c r="Y43" s="6" t="n">
         <f aca="false">V43/U43</f>
-        <v>0.475823405746321</v>
+        <v>0.490539593552908</v>
       </c>
       <c r="Z43" s="6" t="n">
         <f aca="false">(2*X43*Y43)/(X43+Y43)</f>
-        <v>0.475823405746321</v>
+        <v>0.490539593552908</v>
       </c>
       <c r="AA43" s="5" t="n">
         <f aca="false">C43+I43+O43+U43</f>
@@ -25756,23 +25769,23 @@
       </c>
       <c r="AB43" s="5" t="n">
         <f aca="false">D43+J43+P43+V43</f>
-        <v>1091</v>
+        <v>1115</v>
       </c>
       <c r="AC43" s="5" t="n">
         <f aca="false">E43+K43+Q43+W43</f>
-        <v>1120</v>
+        <v>1096</v>
       </c>
       <c r="AD43" s="6" t="n">
         <f aca="false">AB43/(AB43+AC43)</f>
-        <v>0.493441881501583</v>
+        <v>0.504296698326549</v>
       </c>
       <c r="AE43" s="6" t="n">
         <f aca="false">AB43/AA43</f>
-        <v>0.493441881501583</v>
+        <v>0.504296698326549</v>
       </c>
       <c r="AF43" s="6" t="n">
         <f aca="false">(2*AD43*AE43)/(AD43+AE43)</f>
-        <v>0.493441881501583</v>
+        <v>0.504296698326549</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25804,19 +25817,19 @@
         <v>75</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>0.539130434782609</v>
+        <v>0.539823008849557</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>0.826666666666667</v>
+        <v>0.813333333333333</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>0.652631578947368</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="O44" s="0" t="n">
         <v>44</v>
@@ -25840,19 +25853,19 @@
         <v>384</v>
       </c>
       <c r="V44" s="0" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="W44" s="0" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="X44" s="4" t="n">
-        <v>0.505882352941176</v>
+        <v>0.528735632183908</v>
       </c>
       <c r="Y44" s="4" t="n">
-        <v>0.223958333333333</v>
+        <v>0.239583333333333</v>
       </c>
       <c r="Z44" s="4" t="n">
-        <v>0.310469314079422</v>
+        <v>0.329749103942652</v>
       </c>
       <c r="AA44" s="0" t="n">
         <f aca="false">C44+I44+O44+U44</f>
@@ -25860,23 +25873,23 @@
       </c>
       <c r="AB44" s="0" t="n">
         <f aca="false">D44+J44+P44+V44</f>
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AC44" s="0" t="n">
         <f aca="false">E44+K44+Q44+W44</f>
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AD44" s="4" t="n">
         <f aca="false">AB44/(AB44+AC44)</f>
-        <v>0.520958083832335</v>
+        <v>0.532738095238095</v>
       </c>
       <c r="AE44" s="4" t="n">
         <f aca="false">AB44/AA44</f>
-        <v>0.335907335907336</v>
+        <v>0.345559845559846</v>
       </c>
       <c r="AF44" s="4" t="n">
         <f aca="false">(2*AD44*AE44)/(AD44+AE44)</f>
-        <v>0.408450704225352</v>
+        <v>0.4192037470726</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25926,37 +25939,37 @@
         <v>129</v>
       </c>
       <c r="P45" s="0" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q45" s="0" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>0.571428571428571</v>
+        <v>0.558558558558558</v>
       </c>
       <c r="S45" s="4" t="n">
-        <v>0.496124031007752</v>
+        <v>0.48062015503876</v>
       </c>
       <c r="T45" s="4" t="n">
-        <v>0.531120331950207</v>
+        <v>0.516666666666667</v>
       </c>
       <c r="U45" s="0" t="n">
         <v>274</v>
       </c>
       <c r="V45" s="0" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="W45" s="0" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="X45" s="4" t="n">
-        <v>0.572727272727273</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="Y45" s="4" t="n">
-        <v>0.22992700729927</v>
+        <v>0.218978102189781</v>
       </c>
       <c r="Z45" s="4" t="n">
-        <v>0.328125</v>
+        <v>0.3125</v>
       </c>
       <c r="AA45" s="0" t="n">
         <f aca="false">C45+I45+O45+U45</f>
@@ -25964,23 +25977,23 @@
       </c>
       <c r="AB45" s="0" t="n">
         <f aca="false">D45+J45+P45+V45</f>
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AC45" s="0" t="n">
         <f aca="false">E45+K45+Q45+W45</f>
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AD45" s="4" t="n">
         <f aca="false">AB45/(AB45+AC45)</f>
-        <v>0.619926199261993</v>
+        <v>0.603703703703704</v>
       </c>
       <c r="AE45" s="4" t="n">
         <f aca="false">AB45/AA45</f>
-        <v>0.345679012345679</v>
+        <v>0.335390946502058</v>
       </c>
       <c r="AF45" s="4" t="n">
         <f aca="false">(2*AD45*AE45)/(AD45+AE45)</f>
-        <v>0.443857331571995</v>
+        <v>0.431216931216931</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26048,7 +26061,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46" s="4" t="n">
         <v>0</v>
@@ -26069,11 +26082,11 @@
       </c>
       <c r="AC46" s="0" t="n">
         <f aca="false">E46+K46+Q46+W46</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD46" s="4" t="n">
         <f aca="false">AB46/(AB46+AC46)</f>
-        <v>0.928571428571429</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="AE46" s="4" t="n">
         <f aca="false">AB46/AA46</f>
@@ -26081,7 +26094,7 @@
       </c>
       <c r="AF46" s="4" t="n">
         <f aca="false">(2*AD46*AE46)/(AD46+AE46)</f>
-        <v>0.490566037735849</v>
+        <v>0.481481481481481</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26131,16 +26144,16 @@
         <v>2</v>
       </c>
       <c r="Q47" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="S47" s="4" t="n">
         <v>0.166666666666667</v>
       </c>
       <c r="T47" s="4" t="n">
-        <v>0.235294117647059</v>
+        <v>0.25</v>
       </c>
       <c r="U47" s="0" t="n">
         <v>56</v>
@@ -26149,16 +26162,16 @@
         <v>2</v>
       </c>
       <c r="W47" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X47" s="4" t="n">
-        <v>0.2</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="Y47" s="4" t="n">
         <v>0.0357142857142857</v>
       </c>
       <c r="Z47" s="4" t="n">
-        <v>0.0606060606060606</v>
+        <v>0.0597014925373134</v>
       </c>
       <c r="AA47" s="0" t="n">
         <f aca="false">C47+I47+O47+U47</f>
@@ -26211,19 +26224,19 @@
         <v>56</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>0.714285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>0.625</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>0.666666666666667</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="O48" s="0" t="n">
         <v>68</v>
@@ -26247,19 +26260,19 @@
         <v>53</v>
       </c>
       <c r="V48" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W48" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="X48" s="4" t="n">
-        <v>0.157894736842105</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="Y48" s="4" t="n">
-        <v>0.0566037735849057</v>
+        <v>0.0754716981132075</v>
       </c>
       <c r="Z48" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.112676056338028</v>
       </c>
       <c r="AA48" s="0" t="n">
         <f aca="false">C48+I48+O48+U48</f>
@@ -26267,23 +26280,23 @@
       </c>
       <c r="AB48" s="0" t="n">
         <f aca="false">D48+J48+P48+V48</f>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AC48" s="0" t="n">
         <f aca="false">E48+K48+Q48+W48</f>
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AD48" s="4" t="n">
         <f aca="false">AB48/(AB48+AC48)</f>
-        <v>0.554794520547945</v>
+        <v>0.576388888888889</v>
       </c>
       <c r="AE48" s="4" t="n">
         <f aca="false">AB48/AA48</f>
-        <v>0.452513966480447</v>
+        <v>0.463687150837989</v>
       </c>
       <c r="AF48" s="4" t="n">
         <f aca="false">(2*AD48*AE48)/(AD48+AE48)</f>
-        <v>0.498461538461538</v>
+        <v>0.513931888544892</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26312,19 +26325,19 @@
         <v>86</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>0.435643564356436</v>
+        <v>0.442307692307692</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>0.511627906976744</v>
+        <v>0.534883720930232</v>
       </c>
       <c r="N49" s="4" t="n">
-        <v>0.470588235294118</v>
+        <v>0.484210526315789</v>
       </c>
       <c r="O49" s="0" t="n">
         <v>164</v>
@@ -26333,34 +26346,34 @@
         <v>95</v>
       </c>
       <c r="Q49" s="0" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>0.48469387755102</v>
+        <v>0.47979797979798</v>
       </c>
       <c r="S49" s="4" t="n">
         <v>0.579268292682927</v>
       </c>
       <c r="T49" s="4" t="n">
-        <v>0.527777777777778</v>
+        <v>0.524861878453039</v>
       </c>
       <c r="U49" s="0" t="n">
         <v>638</v>
       </c>
       <c r="V49" s="0" t="n">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="W49" s="0" t="n">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="X49" s="4" t="n">
-        <v>0.476744186046512</v>
+        <v>0.481581311769991</v>
       </c>
       <c r="Y49" s="4" t="n">
-        <v>0.835423197492163</v>
+        <v>0.84012539184953</v>
       </c>
       <c r="Z49" s="4" t="n">
-        <v>0.607061503416857</v>
+        <v>0.612221587664192</v>
       </c>
       <c r="AA49" s="0" t="n">
         <f aca="false">C49+I49+O49+U49</f>
@@ -26368,23 +26381,23 @@
       </c>
       <c r="AB49" s="0" t="n">
         <f aca="false">D49+J49+P49+V49</f>
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="AC49" s="0" t="n">
         <f aca="false">E49+K49+Q49+W49</f>
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="AD49" s="4" t="n">
         <f aca="false">AB49/(AB49+AC49)</f>
-        <v>0.474911660777385</v>
+        <v>0.478445229681979</v>
       </c>
       <c r="AE49" s="4" t="n">
         <f aca="false">AB49/AA49</f>
-        <v>0.75</v>
+        <v>0.755580357142857</v>
       </c>
       <c r="AF49" s="4" t="n">
         <f aca="false">(2*AD49*AE49)/(AD49+AE49)</f>
-        <v>0.58156642146257</v>
+        <v>0.585893552574643</v>
       </c>
     </row>
     <row r="50" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26416,69 +26429,69 @@
       </c>
       <c r="J50" s="5" t="n">
         <f aca="false">SUM(J44:J49)</f>
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K50" s="5" t="n">
         <f aca="false">SUM(K44:K49)</f>
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L50" s="6" t="n">
         <f aca="false">J50/(J50+K50)</f>
-        <v>0.562700964630225</v>
+        <v>0.569131832797428</v>
       </c>
       <c r="M50" s="6" t="n">
         <f aca="false">J50/I50</f>
-        <v>0.562700964630225</v>
+        <v>0.569131832797428</v>
       </c>
       <c r="N50" s="6" t="n">
         <f aca="false">(2*L50*M50)/(L50+M50)</f>
-        <v>0.562700964630225</v>
+        <v>0.569131832797428</v>
       </c>
       <c r="O50" s="7" t="n">
         <v>423</v>
       </c>
       <c r="P50" s="7" t="n">
         <f aca="false">SUM(P44:P49)</f>
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q50" s="7" t="n">
         <f aca="false">SUM(Q44:Q49)</f>
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="R50" s="6" t="n">
         <f aca="false">P50/(P50+Q50)</f>
-        <v>0.508274231678487</v>
+        <v>0.50354609929078</v>
       </c>
       <c r="S50" s="6" t="n">
         <f aca="false">P50/O50</f>
-        <v>0.508274231678487</v>
+        <v>0.50354609929078</v>
       </c>
       <c r="T50" s="6" t="n">
         <f aca="false">(2*R50*S50)/(R50+S50)</f>
-        <v>0.508274231678487</v>
+        <v>0.50354609929078</v>
       </c>
       <c r="U50" s="7" t="n">
         <v>1427</v>
       </c>
       <c r="V50" s="7" t="n">
         <f aca="false">SUM(V44:V49)</f>
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="W50" s="7" t="n">
         <f aca="false">SUM(W44:W49)</f>
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="X50" s="6" t="n">
         <f aca="false">V50/(V50+W50)</f>
-        <v>0.481429572529783</v>
+        <v>0.486334968465312</v>
       </c>
       <c r="Y50" s="6" t="n">
         <f aca="false">V50/U50</f>
-        <v>0.481429572529783</v>
+        <v>0.486334968465312</v>
       </c>
       <c r="Z50" s="6" t="n">
         <f aca="false">(2*X50*Y50)/(X50+Y50)</f>
-        <v>0.481429572529783</v>
+        <v>0.486334968465312</v>
       </c>
       <c r="AA50" s="5" t="n">
         <f aca="false">C50+I50+O50+U50</f>
@@ -26486,23 +26499,23 @@
       </c>
       <c r="AB50" s="5" t="n">
         <f aca="false">D50+J50+P50+V50</f>
-        <v>1119</v>
+        <v>1126</v>
       </c>
       <c r="AC50" s="5" t="n">
         <f aca="false">E50+K50+Q50+W50</f>
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="AD50" s="6" t="n">
         <f aca="false">AB50/(AB50+AC50)</f>
-        <v>0.506105834464043</v>
+        <v>0.509271822704659</v>
       </c>
       <c r="AE50" s="6" t="n">
         <f aca="false">AB50/AA50</f>
-        <v>0.506105834464043</v>
+        <v>0.509271822704659</v>
       </c>
       <c r="AF50" s="6" t="n">
         <f aca="false">(2*AD50*AE50)/(AD50+AE50)</f>
-        <v>0.506105834464043</v>
+        <v>0.509271822704659</v>
       </c>
     </row>
   </sheetData>
